--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3488286.879995891</v>
+        <v>-3488989.015680265</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2446118.20279931</v>
+        <v>2446118.202799309</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="H11" t="n">
-        <v>114.3222388569596</v>
+        <v>114.3222388569597</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.50923699120972</v>
+        <v>18.5092369912098</v>
       </c>
       <c r="T11" t="n">
-        <v>42.18246213585451</v>
+        <v>42.18246213585459</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>79.79315073593986</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.83975863332246</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>71.51946170029174</v>
       </c>
       <c r="T12" t="n">
-        <v>88.27136299729725</v>
+        <v>198.698839673052</v>
       </c>
       <c r="U12" t="n">
-        <v>198.6988396730519</v>
+        <v>47.29170902643624</v>
       </c>
       <c r="V12" t="n">
-        <v>54.16926469765502</v>
+        <v>54.16926469765511</v>
       </c>
       <c r="W12" t="n">
-        <v>73.06366070914936</v>
+        <v>73.06366070914945</v>
       </c>
       <c r="X12" t="n">
-        <v>27.14166275170723</v>
+        <v>27.14166275170732</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.05137332553412</v>
+        <v>27.0513733255342</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.200657730167052</v>
+        <v>1.200657730167137</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.3099977887547</v>
+        <v>41.30999778875479</v>
       </c>
       <c r="T13" t="n">
-        <v>48.31511175255181</v>
+        <v>48.3151117525519</v>
       </c>
       <c r="U13" t="n">
-        <v>107.6749517316488</v>
+        <v>107.6749517316489</v>
       </c>
       <c r="V13" t="n">
-        <v>73.50632087205776</v>
+        <v>73.50632087205784</v>
       </c>
       <c r="W13" t="n">
         <v>107.8916758848208</v>
       </c>
       <c r="X13" t="n">
-        <v>47.07833293726691</v>
+        <v>47.07833293726699</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.95333090032454</v>
+        <v>39.95333090032463</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>73.09741588766715</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="F14" t="n">
-        <v>145.7700409872238</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>155.5045423845797</v>
+        <v>155.5045423845798</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74649515820819</v>
+        <v>11.7464951582083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.5092369912096</v>
+        <v>18.50923699120972</v>
       </c>
       <c r="T14" t="n">
-        <v>42.18246213585439</v>
+        <v>42.18246213585451</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.67262509955671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>79.79315073593986</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.83975863332246</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T15" t="n">
-        <v>20.4091259801058</v>
+        <v>20.40912598010592</v>
       </c>
       <c r="U15" t="n">
-        <v>198.6988396730519</v>
+        <v>47.29170902643615</v>
       </c>
       <c r="V15" t="n">
-        <v>198.6988396730519</v>
+        <v>54.16926469765502</v>
       </c>
       <c r="W15" t="n">
-        <v>73.06366070914925</v>
+        <v>156.3706518468348</v>
       </c>
       <c r="X15" t="n">
-        <v>108.119405248903</v>
+        <v>27.14166275170723</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.051373325534</v>
+        <v>27.05137332553412</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.200657730166938</v>
+        <v>1.200657730167052</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.30999778875459</v>
+        <v>41.3099977887547</v>
       </c>
       <c r="T16" t="n">
-        <v>48.3151117525517</v>
+        <v>48.31511175255181</v>
       </c>
       <c r="U16" t="n">
-        <v>107.6749517316487</v>
+        <v>107.6749517316488</v>
       </c>
       <c r="V16" t="n">
-        <v>73.50632087205764</v>
+        <v>73.50632087205776</v>
       </c>
       <c r="W16" t="n">
-        <v>107.8916758848206</v>
+        <v>107.8916758848208</v>
       </c>
       <c r="X16" t="n">
-        <v>47.07833293726679</v>
+        <v>47.07833293726691</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.95333090032443</v>
+        <v>39.95333090032454</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228509</v>
       </c>
       <c r="C17" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981207</v>
       </c>
       <c r="D17" t="n">
-        <v>54.47710654948791</v>
+        <v>54.47710654948747</v>
       </c>
       <c r="E17" t="n">
-        <v>81.72443500106618</v>
+        <v>81.7244350010663</v>
       </c>
       <c r="F17" t="n">
-        <v>106.6701106705158</v>
+        <v>106.670110670516</v>
       </c>
       <c r="G17" t="n">
-        <v>114.5754854875701</v>
+        <v>114.5754854875703</v>
       </c>
       <c r="H17" t="n">
-        <v>33.9299297651545</v>
+        <v>33.9299297651546</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893942</v>
       </c>
       <c r="W17" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621753</v>
       </c>
       <c r="X17" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727355</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.03200358485799</v>
+        <v>86.0320035848581</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>79.79315073593986</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.83975863332246</v>
+        <v>2.289908405843926</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.38102861476161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.06800413500144</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>76.82634995341209</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.58072672426809</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>166.7788770416304</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>67.15022334072735</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228509</v>
       </c>
       <c r="C20" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981207</v>
       </c>
       <c r="D20" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948747</v>
       </c>
       <c r="E20" t="n">
-        <v>81.72443500106618</v>
+        <v>81.7244350010663</v>
       </c>
       <c r="F20" t="n">
-        <v>106.6701106705158</v>
+        <v>106.670110670516</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5754854875701</v>
+        <v>114.5754854875703</v>
       </c>
       <c r="H20" t="n">
-        <v>33.9299297651545</v>
+        <v>33.92992976515469</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893942</v>
       </c>
       <c r="W20" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621753</v>
       </c>
       <c r="X20" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727355</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.03200358485799</v>
+        <v>86.0320035848581</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>79.79315073593986</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>17.87586691549136</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>34.47109501889312</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
     </row>
     <row r="22">
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>76.82634995341209</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>66.58072672426809</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>8.654816437125481</v>
+        <v>8.684627588618969</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228509</v>
       </c>
       <c r="C23" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981207</v>
       </c>
       <c r="D23" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948747</v>
       </c>
       <c r="E23" t="n">
-        <v>81.72443500106618</v>
+        <v>81.7244350010663</v>
       </c>
       <c r="F23" t="n">
-        <v>106.6701106705158</v>
+        <v>106.670110670516</v>
       </c>
       <c r="G23" t="n">
-        <v>114.5754854875701</v>
+        <v>114.5754854875703</v>
       </c>
       <c r="H23" t="n">
-        <v>33.92992976515448</v>
+        <v>33.9299297651546</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893942</v>
       </c>
       <c r="W23" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621753</v>
       </c>
       <c r="X23" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727355</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.03200358485799</v>
+        <v>86.0320035848581</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>74.62476420394943</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>79.79315073593986</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>8.511753728471209</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>8.654816437125481</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>160.1480792967325</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>76.82634995341209</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>63.53539785648127</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>185.1337746134934</v>
       </c>
       <c r="I26" t="n">
-        <v>41.37572738712191</v>
+        <v>41.37572738712193</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>23.70640876545912</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2646,7 +2646,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>97.05835579241354</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>17.50009403269616</v>
       </c>
       <c r="T27" t="n">
-        <v>50.03835820901954</v>
+        <v>147.096714001433</v>
       </c>
       <c r="U27" t="n">
-        <v>76.92094125534977</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7317514406241</v>
+        <v>233.731751440624</v>
       </c>
       <c r="C29" t="n">
         <v>216.270801548151</v>
@@ -2798,7 +2798,7 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E29" t="n">
-        <v>232.9282798494053</v>
+        <v>232.9282798494052</v>
       </c>
       <c r="F29" t="n">
         <v>257.8739555188549</v>
@@ -2807,10 +2807,10 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H29" t="n">
-        <v>185.1337746134936</v>
+        <v>185.1337746134935</v>
       </c>
       <c r="I29" t="n">
-        <v>41.37572738712203</v>
+        <v>41.375727387122</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.13846922012345</v>
+        <v>48.13846922012343</v>
       </c>
       <c r="T29" t="n">
-        <v>71.81169436476824</v>
+        <v>71.81169436476821</v>
       </c>
       <c r="U29" t="n">
         <v>102.3018573284704</v>
@@ -2858,7 +2858,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y29" t="n">
-        <v>237.2358484331971</v>
+        <v>237.235848433197</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>17.5310934270108</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>55.16869487102044</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>97.05835579241341</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>79.79315073593986</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>17.50009403269627</v>
+        <v>17.50009403269625</v>
       </c>
       <c r="T30" t="n">
-        <v>50.03835820901966</v>
+        <v>50.03835820901963</v>
       </c>
       <c r="U30" t="n">
         <v>225.9230314782064</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>56.68060555444785</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.82988995908079</v>
+        <v>30.82988995908076</v>
       </c>
       <c r="C31" t="n">
-        <v>18.24473087577132</v>
+        <v>18.2447308757713</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.75504429595217</v>
+        <v>18.75504429595214</v>
       </c>
       <c r="H31" t="n">
-        <v>11.14598907387599</v>
+        <v>11.14598907387596</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.7767868187739</v>
+        <v>17.77678681877387</v>
       </c>
       <c r="S31" t="n">
-        <v>70.93923001766844</v>
+        <v>70.93923001766841</v>
       </c>
       <c r="T31" t="n">
-        <v>77.94434398146555</v>
+        <v>77.94434398146552</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3041839605626</v>
+        <v>137.3041839605625</v>
       </c>
       <c r="V31" t="n">
         <v>103.1355531009715</v>
@@ -3013,10 +3013,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X31" t="n">
-        <v>76.70756516618064</v>
+        <v>76.70756516618061</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.58256312923828</v>
+        <v>69.58256312923825</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>233.731751440624</v>
       </c>
       <c r="C32" t="n">
-        <v>216.2708015481509</v>
+        <v>216.270801548151</v>
       </c>
       <c r="D32" t="n">
-        <v>205.6809513978263</v>
+        <v>205.6809513978264</v>
       </c>
       <c r="E32" t="n">
         <v>232.9282798494052</v>
       </c>
       <c r="F32" t="n">
-        <v>257.8739555188548</v>
+        <v>257.8739555188549</v>
       </c>
       <c r="G32" t="n">
         <v>265.7793303359092</v>
       </c>
       <c r="H32" t="n">
-        <v>185.1337746134934</v>
+        <v>185.1337746134936</v>
       </c>
       <c r="I32" t="n">
-        <v>41.37572738712193</v>
+        <v>41.375727387122</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.13846922012334</v>
+        <v>48.13846922012343</v>
       </c>
       <c r="T32" t="n">
-        <v>71.81169436476813</v>
+        <v>71.81169436476821</v>
       </c>
       <c r="U32" t="n">
-        <v>102.3018573284703</v>
+        <v>102.3018573284704</v>
       </c>
       <c r="V32" t="n">
-        <v>178.7501682472783</v>
+        <v>178.7501682472784</v>
       </c>
       <c r="W32" t="n">
-        <v>200.2388784945564</v>
+        <v>200.2388784945565</v>
       </c>
       <c r="X32" t="n">
-        <v>220.7290104556124</v>
+        <v>220.7290104556125</v>
       </c>
       <c r="Y32" t="n">
         <v>237.235848433197</v>
@@ -3111,7 +3111,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>95.50133113419555</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.83975863332246</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>166.5021842555528</v>
+        <v>17.50009403269625</v>
       </c>
       <c r="T33" t="n">
-        <v>199.0404484318762</v>
+        <v>50.03835820901963</v>
       </c>
       <c r="U33" t="n">
-        <v>103.0770406361668</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>102.692892938063</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>56.77089498062085</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>56.68060555444774</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.82988995908067</v>
+        <v>30.82988995908076</v>
       </c>
       <c r="C34" t="n">
-        <v>18.24473087577121</v>
+        <v>18.2447308757713</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.75504429595205</v>
+        <v>18.75504429595214</v>
       </c>
       <c r="H34" t="n">
-        <v>11.14598907387587</v>
+        <v>11.14598907387596</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.77678681877379</v>
+        <v>17.77678681877387</v>
       </c>
       <c r="S34" t="n">
-        <v>70.93923001766832</v>
+        <v>70.93923001766841</v>
       </c>
       <c r="T34" t="n">
-        <v>77.94434398146544</v>
+        <v>77.94434398146552</v>
       </c>
       <c r="U34" t="n">
         <v>137.3041839605625</v>
       </c>
       <c r="V34" t="n">
-        <v>103.1355531009714</v>
+        <v>103.1355531009715</v>
       </c>
       <c r="W34" t="n">
-        <v>137.5209081137344</v>
+        <v>137.5209081137345</v>
       </c>
       <c r="X34" t="n">
-        <v>76.70756516618053</v>
+        <v>76.70756516618061</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.58256312923817</v>
+        <v>69.58256312923825</v>
       </c>
     </row>
     <row r="35">
@@ -3354,13 +3354,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>107.4857138529556</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5415757500918</v>
+        <v>77.82417157133452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.83975863332246</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>24.49045968643186</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3503,22 +3503,22 @@
         <v>181.301269871706</v>
       </c>
       <c r="C38" t="n">
-        <v>163.840319979233</v>
+        <v>163.8403199792329</v>
       </c>
       <c r="D38" t="n">
-        <v>153.2504698289084</v>
+        <v>153.2504698289083</v>
       </c>
       <c r="E38" t="n">
         <v>180.4977982804872</v>
       </c>
       <c r="F38" t="n">
-        <v>205.4434739499369</v>
+        <v>205.4434739499368</v>
       </c>
       <c r="G38" t="n">
         <v>213.3488487669912</v>
       </c>
       <c r="H38" t="n">
-        <v>132.7032930445756</v>
+        <v>132.7032930445755</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>19.38121279585022</v>
+        <v>19.38121279585013</v>
       </c>
       <c r="U38" t="n">
-        <v>49.87137575955242</v>
+        <v>49.87137575955234</v>
       </c>
       <c r="V38" t="n">
-        <v>126.3196866783604</v>
+        <v>126.3196866783603</v>
       </c>
       <c r="W38" t="n">
-        <v>147.8083969256385</v>
+        <v>147.8083969256384</v>
       </c>
       <c r="X38" t="n">
-        <v>168.2985288866945</v>
+        <v>168.2985288866944</v>
       </c>
       <c r="Y38" t="n">
-        <v>184.8053668642791</v>
+        <v>184.805366864279</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>79.79315073593986</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>15.59471781127298</v>
+        <v>82.83975863332246</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.4068740066496389</v>
       </c>
       <c r="U39" t="n">
         <v>225.9230314782064</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.50874844875041</v>
+        <v>18.50874844875032</v>
       </c>
       <c r="T40" t="n">
-        <v>25.51386241254752</v>
+        <v>25.51386241254744</v>
       </c>
       <c r="U40" t="n">
-        <v>84.87370239164453</v>
+        <v>84.87370239164444</v>
       </c>
       <c r="V40" t="n">
-        <v>50.70507153205347</v>
+        <v>50.70507153205338</v>
       </c>
       <c r="W40" t="n">
-        <v>85.09042654481647</v>
+        <v>85.09042654481638</v>
       </c>
       <c r="X40" t="n">
-        <v>24.27708359726262</v>
+        <v>24.27708359726253</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.15208156032025</v>
+        <v>17.15208156032017</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>181.301269871706</v>
       </c>
       <c r="C41" t="n">
-        <v>163.8403199792329</v>
+        <v>163.840319979233</v>
       </c>
       <c r="D41" t="n">
-        <v>153.2504698289083</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E41" t="n">
         <v>180.4977982804872</v>
       </c>
       <c r="F41" t="n">
-        <v>205.4434739499368</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G41" t="n">
-        <v>213.3488487669911</v>
+        <v>213.3488487669912</v>
       </c>
       <c r="H41" t="n">
-        <v>132.7032930445754</v>
+        <v>132.7032930445756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>19.38121279585014</v>
+        <v>19.38121279585022</v>
       </c>
       <c r="U41" t="n">
-        <v>49.87137575955233</v>
+        <v>49.87137575955242</v>
       </c>
       <c r="V41" t="n">
-        <v>126.3196866783603</v>
+        <v>126.3196866783604</v>
       </c>
       <c r="W41" t="n">
-        <v>147.8083969256384</v>
+        <v>147.8083969256385</v>
       </c>
       <c r="X41" t="n">
-        <v>168.2985288866944</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y41" t="n">
-        <v>184.805366864279</v>
+        <v>184.8053668642791</v>
       </c>
     </row>
     <row r="42">
@@ -3819,16 +3819,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>110.2870331563206</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>93.44664753073377</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.83975863332246</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U42" t="n">
         <v>225.9230314782064</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.50874844875032</v>
+        <v>18.50874844875041</v>
       </c>
       <c r="T43" t="n">
-        <v>25.51386241254744</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U43" t="n">
-        <v>84.87370239164444</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V43" t="n">
-        <v>50.70507153205338</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W43" t="n">
-        <v>85.09042654481638</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X43" t="n">
-        <v>24.27708359726253</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.15208156032017</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>181.301269871706</v>
       </c>
       <c r="C44" t="n">
-        <v>163.8403199792329</v>
+        <v>163.840319979233</v>
       </c>
       <c r="D44" t="n">
-        <v>153.2504698289083</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E44" t="n">
         <v>180.4977982804872</v>
       </c>
       <c r="F44" t="n">
-        <v>205.4434739499368</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G44" t="n">
-        <v>213.3488487669911</v>
+        <v>213.3488487669912</v>
       </c>
       <c r="H44" t="n">
-        <v>132.7032930445755</v>
+        <v>132.7032930445756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>19.38121279585014</v>
+        <v>19.38121279585022</v>
       </c>
       <c r="U44" t="n">
-        <v>49.87137575955233</v>
+        <v>49.87137575955241</v>
       </c>
       <c r="V44" t="n">
-        <v>126.3196866783603</v>
+        <v>126.3196866783604</v>
       </c>
       <c r="W44" t="n">
-        <v>147.8083969256384</v>
+        <v>147.8083969256385</v>
       </c>
       <c r="X44" t="n">
-        <v>168.2985288866944</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y44" t="n">
-        <v>184.805366864279</v>
+        <v>184.8053668642791</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I45" t="n">
         <v>79.79315073593986</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.83975863332246</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.5021842555528</v>
+        <v>27.69256311701566</v>
       </c>
       <c r="T45" t="n">
-        <v>89.32476777000704</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>24.49045968643177</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V45" t="n">
-        <v>31.36801535765065</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>4.34041341170294</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.50874844875032</v>
+        <v>18.50874844875041</v>
       </c>
       <c r="T46" t="n">
-        <v>25.51386241254744</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U46" t="n">
-        <v>84.87370239164444</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V46" t="n">
-        <v>50.70507153205338</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W46" t="n">
-        <v>85.09042654481638</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X46" t="n">
-        <v>24.27708359726253</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.15208156032017</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>532.7847134395648</v>
+        <v>532.7847134395653</v>
       </c>
       <c r="C11" t="n">
-        <v>532.7847134395648</v>
+        <v>532.7847134395653</v>
       </c>
       <c r="D11" t="n">
-        <v>532.7847134395648</v>
+        <v>532.7847134395653</v>
       </c>
       <c r="E11" t="n">
-        <v>332.0788147799165</v>
+        <v>532.7847134395653</v>
       </c>
       <c r="F11" t="n">
-        <v>131.372916120268</v>
+        <v>332.0788147799166</v>
       </c>
       <c r="G11" t="n">
-        <v>131.372916120268</v>
+        <v>131.3729161202681</v>
       </c>
       <c r="H11" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I11" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J11" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K11" t="n">
         <v>184.56125015564</v>
       </c>
       <c r="L11" t="n">
-        <v>204.6598048632434</v>
+        <v>184.56125015564</v>
       </c>
       <c r="M11" t="n">
-        <v>401.3716561395647</v>
+        <v>381.2731014319615</v>
       </c>
       <c r="N11" t="n">
-        <v>598.0835074158861</v>
+        <v>388.3644718664517</v>
       </c>
       <c r="O11" t="n">
-        <v>794.7953586922074</v>
+        <v>585.0763231427732</v>
       </c>
       <c r="P11" t="n">
-        <v>794.7953586922074</v>
+        <v>748.9527481072037</v>
       </c>
       <c r="Q11" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R11" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="S11" t="n">
-        <v>776.0991597111874</v>
+        <v>776.0991597111881</v>
       </c>
       <c r="T11" t="n">
-        <v>733.4906120992132</v>
+        <v>733.4906120992138</v>
       </c>
       <c r="U11" t="n">
-        <v>733.4906120992132</v>
+        <v>733.4906120992138</v>
       </c>
       <c r="V11" t="n">
-        <v>733.4906120992132</v>
+        <v>733.4906120992138</v>
       </c>
       <c r="W11" t="n">
-        <v>733.4906120992132</v>
+        <v>733.4906120992138</v>
       </c>
       <c r="X11" t="n">
-        <v>733.4906120992132</v>
+        <v>733.4906120992138</v>
       </c>
       <c r="Y11" t="n">
-        <v>532.7847134395648</v>
+        <v>733.4906120992138</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>321.6679201524147</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="C12" t="n">
-        <v>321.6679201524147</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="D12" t="n">
-        <v>321.6679201524147</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="E12" t="n">
-        <v>162.4304651469592</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="F12" t="n">
-        <v>15.89590717384415</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="G12" t="n">
-        <v>15.89590717384415</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="H12" t="n">
-        <v>15.89590717384415</v>
+        <v>96.49504933135918</v>
       </c>
       <c r="I12" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J12" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K12" t="n">
-        <v>15.89590717384415</v>
+        <v>185.8440006119359</v>
       </c>
       <c r="L12" t="n">
-        <v>204.6598048632434</v>
+        <v>382.5558518882574</v>
       </c>
       <c r="M12" t="n">
-        <v>401.3716561395647</v>
+        <v>493.4399366663912</v>
       </c>
       <c r="N12" t="n">
-        <v>598.0835074158861</v>
+        <v>493.4399366663912</v>
       </c>
       <c r="O12" t="n">
-        <v>794.7953586922074</v>
+        <v>690.1517879427128</v>
       </c>
       <c r="P12" t="n">
-        <v>794.7953586922074</v>
+        <v>690.1517879427128</v>
       </c>
       <c r="Q12" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R12" t="n">
-        <v>794.7953586922074</v>
+        <v>711.1188348201651</v>
       </c>
       <c r="S12" t="n">
-        <v>794.7953586922074</v>
+        <v>638.87695431482</v>
       </c>
       <c r="T12" t="n">
-        <v>705.6323657656445</v>
+        <v>438.1710556551715</v>
       </c>
       <c r="U12" t="n">
-        <v>504.9264671059962</v>
+        <v>390.4016525981652</v>
       </c>
       <c r="V12" t="n">
-        <v>450.2100381184659</v>
+        <v>335.6852236106348</v>
       </c>
       <c r="W12" t="n">
-        <v>376.4083606344767</v>
+        <v>261.8835461266454</v>
       </c>
       <c r="X12" t="n">
-        <v>348.9925396731562</v>
+        <v>234.4677251653249</v>
       </c>
       <c r="Y12" t="n">
-        <v>321.6679201524147</v>
+        <v>207.1431056445833</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="C13" t="n">
-        <v>27.16656351345514</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="D13" t="n">
-        <v>56.88225445267744</v>
+        <v>45.61159811306639</v>
       </c>
       <c r="E13" t="n">
-        <v>88.75764065982651</v>
+        <v>77.48698432021537</v>
       </c>
       <c r="F13" t="n">
-        <v>121.6358123443771</v>
+        <v>110.3651560047659</v>
       </c>
       <c r="G13" t="n">
-        <v>121.6358123443771</v>
+        <v>110.3651560047659</v>
       </c>
       <c r="H13" t="n">
-        <v>139.9342230678645</v>
+        <v>110.3651560047659</v>
       </c>
       <c r="I13" t="n">
-        <v>169.8452906831935</v>
+        <v>140.2762236200948</v>
       </c>
       <c r="J13" t="n">
-        <v>183.9974753465374</v>
+        <v>183.9974753465382</v>
       </c>
       <c r="K13" t="n">
-        <v>188.8475118954657</v>
+        <v>188.8475118954665</v>
       </c>
       <c r="L13" t="n">
-        <v>250.5803234719154</v>
+        <v>250.5803234719162</v>
       </c>
       <c r="M13" t="n">
-        <v>326.0580407949146</v>
+        <v>326.0580407949154</v>
       </c>
       <c r="N13" t="n">
-        <v>405.1756831228192</v>
+        <v>405.17568312282</v>
       </c>
       <c r="O13" t="n">
-        <v>462.2373358596336</v>
+        <v>462.2373358596344</v>
       </c>
       <c r="P13" t="n">
-        <v>487.5427552522202</v>
+        <v>487.542755252221</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5427552522202</v>
+        <v>487.542755252221</v>
       </c>
       <c r="R13" t="n">
-        <v>487.5427552522202</v>
+        <v>487.542755252221</v>
       </c>
       <c r="S13" t="n">
-        <v>445.8154847585286</v>
+        <v>445.8154847585293</v>
       </c>
       <c r="T13" t="n">
-        <v>397.0123415741328</v>
+        <v>397.0123415741334</v>
       </c>
       <c r="U13" t="n">
-        <v>288.2497640674169</v>
+        <v>288.2497640674173</v>
       </c>
       <c r="V13" t="n">
-        <v>214.0009551057424</v>
+        <v>214.0009551057428</v>
       </c>
       <c r="W13" t="n">
-        <v>105.0194643129942</v>
+        <v>105.0194643129944</v>
       </c>
       <c r="X13" t="n">
-        <v>57.4655926591892</v>
+        <v>57.46559265918938</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.10869275987147</v>
+        <v>17.10869275987157</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.0788147799168</v>
+        <v>459.3780214198112</v>
       </c>
       <c r="C14" t="n">
-        <v>332.0788147799168</v>
+        <v>459.3780214198112</v>
       </c>
       <c r="D14" t="n">
-        <v>332.0788147799168</v>
+        <v>385.5422477959049</v>
       </c>
       <c r="E14" t="n">
-        <v>332.0788147799168</v>
+        <v>184.8363491362564</v>
       </c>
       <c r="F14" t="n">
-        <v>184.8363491362562</v>
+        <v>184.8363491362564</v>
       </c>
       <c r="G14" t="n">
-        <v>184.8363491362562</v>
+        <v>184.8363491362564</v>
       </c>
       <c r="H14" t="n">
-        <v>27.76105379829687</v>
+        <v>27.76105379829703</v>
       </c>
       <c r="I14" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J14" t="n">
-        <v>47.86977448816997</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K14" t="n">
-        <v>47.86977448816997</v>
+        <v>184.56125015564</v>
       </c>
       <c r="L14" t="n">
-        <v>47.86977448816997</v>
+        <v>381.2731014319615</v>
       </c>
       <c r="M14" t="n">
-        <v>244.5816257644913</v>
+        <v>381.2731014319615</v>
       </c>
       <c r="N14" t="n">
-        <v>441.2934770408127</v>
+        <v>388.3644718664517</v>
       </c>
       <c r="O14" t="n">
-        <v>630.9189337277769</v>
+        <v>585.0763231427732</v>
       </c>
       <c r="P14" t="n">
-        <v>794.7953586922074</v>
+        <v>748.9527481072037</v>
       </c>
       <c r="Q14" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R14" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="S14" t="n">
-        <v>776.0991597111877</v>
+        <v>776.0991597111881</v>
       </c>
       <c r="T14" t="n">
-        <v>733.4906120992135</v>
+        <v>733.4906120992139</v>
       </c>
       <c r="U14" t="n">
-        <v>733.4906120992135</v>
+        <v>660.0839200794597</v>
       </c>
       <c r="V14" t="n">
-        <v>733.4906120992135</v>
+        <v>660.0839200794597</v>
       </c>
       <c r="W14" t="n">
-        <v>733.4906120992135</v>
+        <v>660.0839200794597</v>
       </c>
       <c r="X14" t="n">
-        <v>733.4906120992135</v>
+        <v>660.0839200794597</v>
       </c>
       <c r="Y14" t="n">
-        <v>532.7847134395652</v>
+        <v>459.3780214198112</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>162.4304651469592</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="C15" t="n">
-        <v>162.4304651469592</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="D15" t="n">
-        <v>162.4304651469592</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="E15" t="n">
-        <v>162.4304651469592</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="F15" t="n">
-        <v>15.89590717384415</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="G15" t="n">
-        <v>15.89590717384415</v>
+        <v>207.1431056445833</v>
       </c>
       <c r="H15" t="n">
-        <v>15.89590717384415</v>
+        <v>96.49504933135918</v>
       </c>
       <c r="I15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J15" t="n">
-        <v>15.89590717384415</v>
+        <v>41.24594382033388</v>
       </c>
       <c r="K15" t="n">
-        <v>15.89590717384415</v>
+        <v>211.1940372584256</v>
       </c>
       <c r="L15" t="n">
-        <v>212.6077584501655</v>
+        <v>211.1940372584256</v>
       </c>
       <c r="M15" t="n">
-        <v>401.3716561395647</v>
+        <v>211.1940372584256</v>
       </c>
       <c r="N15" t="n">
-        <v>598.0835074158861</v>
+        <v>401.371656139565</v>
       </c>
       <c r="O15" t="n">
-        <v>794.7953586922074</v>
+        <v>598.0835074158865</v>
       </c>
       <c r="P15" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="Q15" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R15" t="n">
-        <v>794.7953586922074</v>
+        <v>711.1188348201651</v>
       </c>
       <c r="S15" t="n">
-        <v>794.7953586922074</v>
+        <v>542.9348103196068</v>
       </c>
       <c r="T15" t="n">
-        <v>774.1800799244238</v>
+        <v>522.319531551823</v>
       </c>
       <c r="U15" t="n">
-        <v>573.4741812647754</v>
+        <v>474.5501284948168</v>
       </c>
       <c r="V15" t="n">
-        <v>372.7682826051271</v>
+        <v>419.8336995072865</v>
       </c>
       <c r="W15" t="n">
-        <v>298.9666051211379</v>
+        <v>261.8835461266452</v>
       </c>
       <c r="X15" t="n">
-        <v>189.7550846677006</v>
+        <v>234.4677251653248</v>
       </c>
       <c r="Y15" t="n">
-        <v>162.4304651469592</v>
+        <v>207.1431056445833</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="C16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="D16" t="n">
-        <v>15.89590717384415</v>
+        <v>45.61159811306647</v>
       </c>
       <c r="E16" t="n">
-        <v>15.89590717384415</v>
+        <v>77.48698432021553</v>
       </c>
       <c r="F16" t="n">
-        <v>15.89590717384415</v>
+        <v>110.3651560047661</v>
       </c>
       <c r="G16" t="n">
-        <v>15.89590717384415</v>
+        <v>110.3651560047661</v>
       </c>
       <c r="H16" t="n">
-        <v>15.89590717384415</v>
+        <v>128.6635667282535</v>
       </c>
       <c r="I16" t="n">
-        <v>45.8069747891733</v>
+        <v>158.5746343435825</v>
       </c>
       <c r="J16" t="n">
-        <v>146.593897562548</v>
+        <v>158.5746343435825</v>
       </c>
       <c r="K16" t="n">
-        <v>151.4439341114762</v>
+        <v>163.4246708925108</v>
       </c>
       <c r="L16" t="n">
-        <v>213.176745687926</v>
+        <v>225.1574824689605</v>
       </c>
       <c r="M16" t="n">
-        <v>288.6544630109252</v>
+        <v>300.6351997919597</v>
       </c>
       <c r="N16" t="n">
-        <v>367.7721053388298</v>
+        <v>379.7528421198643</v>
       </c>
       <c r="O16" t="n">
-        <v>424.8337580756441</v>
+        <v>436.8144948566787</v>
       </c>
       <c r="P16" t="n">
-        <v>450.1391774682307</v>
+        <v>487.5427552522203</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5427552522193</v>
+        <v>487.5427552522203</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5427552522193</v>
+        <v>487.5427552522203</v>
       </c>
       <c r="S16" t="n">
-        <v>445.8154847585278</v>
+        <v>445.8154847585287</v>
       </c>
       <c r="T16" t="n">
-        <v>397.0123415741322</v>
+        <v>397.012341574133</v>
       </c>
       <c r="U16" t="n">
-        <v>288.2497640674163</v>
+        <v>288.2497640674169</v>
       </c>
       <c r="V16" t="n">
-        <v>214.000955105742</v>
+        <v>214.0009551057424</v>
       </c>
       <c r="W16" t="n">
-        <v>105.0194643129938</v>
+        <v>105.0194643129942</v>
       </c>
       <c r="X16" t="n">
-        <v>57.46559265918897</v>
+        <v>57.46559265918921</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.10869275987136</v>
+        <v>17.10869275987149</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.9504770461739</v>
+        <v>476.9504770461735</v>
       </c>
       <c r="C17" t="n">
-        <v>411.2262783594952</v>
+        <v>411.2262783594947</v>
       </c>
       <c r="D17" t="n">
-        <v>356.1988980064771</v>
+        <v>356.1988980064773</v>
       </c>
       <c r="E17" t="n">
-        <v>273.6489636619658</v>
+        <v>273.6489636619663</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9013771260912</v>
+        <v>165.9013771260916</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16856350228304</v>
+        <v>50.16856350228315</v>
       </c>
       <c r="H17" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I17" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J17" t="n">
-        <v>15.89590717384415</v>
+        <v>47.86977448816998</v>
       </c>
       <c r="K17" t="n">
-        <v>184.56125015564</v>
+        <v>216.5351174699658</v>
       </c>
       <c r="L17" t="n">
-        <v>381.2731014319613</v>
+        <v>216.5351174699658</v>
       </c>
       <c r="M17" t="n">
-        <v>381.2731014319613</v>
+        <v>413.2469687462873</v>
       </c>
       <c r="N17" t="n">
-        <v>552.2408968308816</v>
+        <v>434.2070824514561</v>
       </c>
       <c r="O17" t="n">
-        <v>748.952748107203</v>
+        <v>630.9189337277776</v>
       </c>
       <c r="P17" t="n">
-        <v>748.952748107203</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="Q17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="S17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="T17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="U17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="V17" t="n">
         <v>766.9707896023697</v>
@@ -5555,10 +5555,10 @@
         <v>717.4404525859884</v>
       </c>
       <c r="X17" t="n">
-        <v>647.2130125786415</v>
+        <v>647.2130125786414</v>
       </c>
       <c r="Y17" t="n">
-        <v>560.3119988565627</v>
+        <v>560.3119988565625</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96.49504933135917</v>
+        <v>624.2669828783582</v>
       </c>
       <c r="C18" t="n">
-        <v>96.49504933135917</v>
+        <v>449.8139535972313</v>
       </c>
       <c r="D18" t="n">
-        <v>96.49504933135917</v>
+        <v>300.87954393598</v>
       </c>
       <c r="E18" t="n">
-        <v>96.49504933135917</v>
+        <v>300.87954393598</v>
       </c>
       <c r="F18" t="n">
-        <v>96.49504933135917</v>
+        <v>154.344985962865</v>
       </c>
       <c r="G18" t="n">
-        <v>96.49504933135917</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H18" t="n">
-        <v>96.49504933135917</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I18" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J18" t="n">
-        <v>15.89590717384415</v>
+        <v>41.24594382033388</v>
       </c>
       <c r="K18" t="n">
-        <v>100.0162341137481</v>
+        <v>211.1940372584256</v>
       </c>
       <c r="L18" t="n">
-        <v>296.7280853900694</v>
+        <v>296.7280853900697</v>
       </c>
       <c r="M18" t="n">
-        <v>493.4399366663907</v>
+        <v>296.7280853900697</v>
       </c>
       <c r="N18" t="n">
-        <v>493.4399366663907</v>
+        <v>296.7280853900697</v>
       </c>
       <c r="O18" t="n">
-        <v>493.4399366663907</v>
+        <v>493.4399366663912</v>
       </c>
       <c r="P18" t="n">
-        <v>690.1517879427121</v>
+        <v>690.1517879427128</v>
       </c>
       <c r="Q18" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R18" t="n">
-        <v>711.1188348201645</v>
+        <v>792.4823198984263</v>
       </c>
       <c r="S18" t="n">
-        <v>711.1188348201645</v>
+        <v>792.4823198984263</v>
       </c>
       <c r="T18" t="n">
-        <v>711.1188348201645</v>
+        <v>792.4823198984263</v>
       </c>
       <c r="U18" t="n">
-        <v>510.4129361605161</v>
+        <v>792.4823198984263</v>
       </c>
       <c r="V18" t="n">
-        <v>309.7070375008677</v>
+        <v>792.4823198984263</v>
       </c>
       <c r="W18" t="n">
-        <v>109.0011388412194</v>
+        <v>792.4823198984263</v>
       </c>
       <c r="X18" t="n">
-        <v>109.0011388412194</v>
+        <v>792.4823198984263</v>
       </c>
       <c r="Y18" t="n">
-        <v>96.49504933135917</v>
+        <v>792.4823198984263</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="C19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="D19" t="n">
-        <v>15.89590717384415</v>
+        <v>169.3245476671912</v>
       </c>
       <c r="E19" t="n">
-        <v>15.89590717384415</v>
+        <v>169.3245476671912</v>
       </c>
       <c r="F19" t="n">
-        <v>15.89590717384415</v>
+        <v>169.3245476671912</v>
       </c>
       <c r="G19" t="n">
-        <v>15.89590717384415</v>
+        <v>169.3245476671912</v>
       </c>
       <c r="H19" t="n">
-        <v>15.89590717384415</v>
+        <v>169.3245476671912</v>
       </c>
       <c r="I19" t="n">
-        <v>15.89590717384415</v>
+        <v>93.49828086415941</v>
       </c>
       <c r="J19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K19" t="n">
-        <v>20.74594372277238</v>
+        <v>20.74594372277239</v>
       </c>
       <c r="L19" t="n">
-        <v>82.47875529922212</v>
+        <v>82.47875529922213</v>
       </c>
       <c r="M19" t="n">
-        <v>157.9564726222213</v>
+        <v>157.9564726222214</v>
       </c>
       <c r="N19" t="n">
         <v>237.0741149501259</v>
@@ -5692,31 +5692,31 @@
         <v>319.4411870795269</v>
       </c>
       <c r="Q19" t="n">
-        <v>252.1879277620843</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="R19" t="n">
-        <v>83.72441559882128</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="S19" t="n">
-        <v>83.72441559882128</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="T19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="U19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="V19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="W19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="X19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>476.9504770461739</v>
+        <v>476.9504770461742</v>
       </c>
       <c r="C20" t="n">
-        <v>411.2262783594952</v>
+        <v>411.2262783594953</v>
       </c>
       <c r="D20" t="n">
         <v>356.1988980064777</v>
       </c>
       <c r="E20" t="n">
-        <v>273.6489636619665</v>
+        <v>273.6489636619663</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9013771260923</v>
+        <v>165.9013771260916</v>
       </c>
       <c r="G20" t="n">
-        <v>50.16856350228304</v>
+        <v>50.16856350228325</v>
       </c>
       <c r="H20" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I20" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J20" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K20" t="n">
-        <v>15.89590717384415</v>
+        <v>184.56125015564</v>
       </c>
       <c r="L20" t="n">
-        <v>15.89590717384415</v>
+        <v>204.6598048632435</v>
       </c>
       <c r="M20" t="n">
-        <v>191.6526205901298</v>
+        <v>401.371656139565</v>
       </c>
       <c r="N20" t="n">
-        <v>388.3644718664511</v>
+        <v>598.0835074158865</v>
       </c>
       <c r="O20" t="n">
-        <v>585.0763231427725</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="P20" t="n">
-        <v>748.952748107203</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="Q20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="S20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="T20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="U20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="V20" t="n">
-        <v>766.9707896023695</v>
+        <v>766.9707896023702</v>
       </c>
       <c r="W20" t="n">
-        <v>717.4404525859884</v>
+        <v>717.4404525859889</v>
       </c>
       <c r="X20" t="n">
-        <v>647.2130125786415</v>
+        <v>647.2130125786418</v>
       </c>
       <c r="Y20" t="n">
-        <v>560.3119988565627</v>
+        <v>560.3119988565629</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>207.1431056445832</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="C21" t="n">
-        <v>207.1431056445832</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="D21" t="n">
-        <v>207.1431056445832</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="E21" t="n">
-        <v>207.1431056445832</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="F21" t="n">
-        <v>207.1431056445832</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="G21" t="n">
-        <v>207.1431056445832</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H21" t="n">
-        <v>96.49504933135917</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I21" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J21" t="n">
-        <v>15.89590717384415</v>
+        <v>41.24594382033388</v>
       </c>
       <c r="K21" t="n">
-        <v>15.89590717384415</v>
+        <v>211.1940372584256</v>
       </c>
       <c r="L21" t="n">
-        <v>15.89590717384415</v>
+        <v>407.9058885347471</v>
       </c>
       <c r="M21" t="n">
-        <v>212.6077584501655</v>
+        <v>407.9058885347471</v>
       </c>
       <c r="N21" t="n">
-        <v>296.7280853900694</v>
+        <v>407.9058885347471</v>
       </c>
       <c r="O21" t="n">
-        <v>493.4399366663907</v>
+        <v>493.4399366663912</v>
       </c>
       <c r="P21" t="n">
-        <v>690.1517879427121</v>
+        <v>690.1517879427128</v>
       </c>
       <c r="Q21" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R21" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="S21" t="n">
-        <v>626.611334191649</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="T21" t="n">
-        <v>425.9054355320006</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="U21" t="n">
-        <v>225.1995368723523</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="V21" t="n">
-        <v>207.1431056445832</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="W21" t="n">
-        <v>207.1431056445832</v>
+        <v>759.9760707943362</v>
       </c>
       <c r="X21" t="n">
-        <v>207.1431056445832</v>
+        <v>559.2701721346878</v>
       </c>
       <c r="Y21" t="n">
-        <v>207.1431056445832</v>
+        <v>358.5642734750392</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>310.6989482541476</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="C22" t="n">
-        <v>310.6989482541476</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="D22" t="n">
-        <v>310.6989482541476</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="E22" t="n">
-        <v>162.7858546717545</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="F22" t="n">
-        <v>15.89590717384415</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="G22" t="n">
-        <v>15.89590717384415</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="H22" t="n">
-        <v>15.89590717384415</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="I22" t="n">
-        <v>15.89590717384415</v>
+        <v>93.49828086415941</v>
       </c>
       <c r="J22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K22" t="n">
-        <v>20.74594372277238</v>
+        <v>20.74594372277239</v>
       </c>
       <c r="L22" t="n">
-        <v>82.47875529922212</v>
+        <v>82.47875529922213</v>
       </c>
       <c r="M22" t="n">
-        <v>157.9564726222213</v>
+        <v>157.9564726222214</v>
       </c>
       <c r="N22" t="n">
         <v>237.0741149501259</v>
@@ -5929,31 +5929,31 @@
         <v>319.4411870795269</v>
       </c>
       <c r="Q22" t="n">
-        <v>319.4411870795269</v>
+        <v>252.1879277620844</v>
       </c>
       <c r="R22" t="n">
-        <v>319.4411870795269</v>
+        <v>252.1879277620844</v>
       </c>
       <c r="S22" t="n">
-        <v>319.4411870795269</v>
+        <v>252.1879277620844</v>
       </c>
       <c r="T22" t="n">
-        <v>319.4411870795269</v>
+        <v>252.1879277620844</v>
       </c>
       <c r="U22" t="n">
-        <v>310.6989482541476</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="V22" t="n">
-        <v>310.6989482541476</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="W22" t="n">
-        <v>310.6989482541476</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="X22" t="n">
-        <v>310.6989482541476</v>
+        <v>243.4155766624693</v>
       </c>
       <c r="Y22" t="n">
-        <v>310.6989482541476</v>
+        <v>243.4155766624693</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.9504770461734</v>
+        <v>476.9504770461741</v>
       </c>
       <c r="C23" t="n">
-        <v>411.2262783594947</v>
+        <v>411.2262783594953</v>
       </c>
       <c r="D23" t="n">
-        <v>356.1988980064772</v>
+        <v>356.1988980064776</v>
       </c>
       <c r="E23" t="n">
-        <v>273.6489636619659</v>
+        <v>273.6489636619662</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9013771260913</v>
+        <v>165.9013771260915</v>
       </c>
       <c r="G23" t="n">
-        <v>50.16856350228303</v>
+        <v>50.16856350228315</v>
       </c>
       <c r="H23" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I23" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J23" t="n">
-        <v>15.89590717384415</v>
+        <v>47.86977448816998</v>
       </c>
       <c r="K23" t="n">
-        <v>184.56125015564</v>
+        <v>216.5351174699658</v>
       </c>
       <c r="L23" t="n">
-        <v>381.2731014319613</v>
+        <v>237.4952311751346</v>
       </c>
       <c r="M23" t="n">
-        <v>577.9849527082827</v>
+        <v>237.4952311751346</v>
       </c>
       <c r="N23" t="n">
-        <v>774.696803984604</v>
+        <v>434.2070824514561</v>
       </c>
       <c r="O23" t="n">
-        <v>794.7953586922074</v>
+        <v>630.9189337277776</v>
       </c>
       <c r="P23" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="Q23" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R23" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="S23" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="T23" t="n">
-        <v>794.7953586922069</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="U23" t="n">
-        <v>794.7953586922069</v>
+        <v>794.7953586922083</v>
       </c>
       <c r="V23" t="n">
-        <v>766.9707896023692</v>
+        <v>766.9707896023705</v>
       </c>
       <c r="W23" t="n">
-        <v>717.4404525859879</v>
+        <v>717.4404525859891</v>
       </c>
       <c r="X23" t="n">
-        <v>647.213012578641</v>
+        <v>647.2130125786421</v>
       </c>
       <c r="Y23" t="n">
-        <v>560.3119988565622</v>
+        <v>560.3119988565632</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.89590717384415</v>
+        <v>626.58002167214</v>
       </c>
       <c r="C24" t="n">
-        <v>15.89590717384415</v>
+        <v>626.58002167214</v>
       </c>
       <c r="D24" t="n">
-        <v>15.89590717384415</v>
+        <v>477.6456120108887</v>
       </c>
       <c r="E24" t="n">
-        <v>15.89590717384415</v>
+        <v>318.4081570054332</v>
       </c>
       <c r="F24" t="n">
-        <v>15.89590717384415</v>
+        <v>171.8735990323182</v>
       </c>
       <c r="G24" t="n">
-        <v>15.89590717384415</v>
+        <v>171.8735990323182</v>
       </c>
       <c r="H24" t="n">
-        <v>15.89590717384415</v>
+        <v>96.49504933135918</v>
       </c>
       <c r="I24" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J24" t="n">
-        <v>41.24594382033387</v>
+        <v>41.24594382033388</v>
       </c>
       <c r="K24" t="n">
         <v>211.1940372584256</v>
       </c>
       <c r="L24" t="n">
-        <v>407.905888534747</v>
+        <v>296.7280853900697</v>
       </c>
       <c r="M24" t="n">
-        <v>493.4399366663907</v>
+        <v>493.4399366663912</v>
       </c>
       <c r="N24" t="n">
-        <v>493.4399366663907</v>
+        <v>493.4399366663912</v>
       </c>
       <c r="O24" t="n">
-        <v>690.1517879427121</v>
+        <v>493.4399366663912</v>
       </c>
       <c r="P24" t="n">
-        <v>690.1517879427121</v>
+        <v>690.1517879427128</v>
       </c>
       <c r="Q24" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="R24" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="S24" t="n">
-        <v>626.611334191649</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="T24" t="n">
-        <v>425.9054355320006</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="U24" t="n">
-        <v>225.1995368723523</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="V24" t="n">
-        <v>24.49363821270396</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="W24" t="n">
-        <v>15.89590717384415</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="X24" t="n">
-        <v>15.89590717384415</v>
+        <v>794.7953586922081</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.89590717384415</v>
+        <v>794.7953586922081</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>255.2640175275256</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="C25" t="n">
-        <v>255.2640175275256</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="D25" t="n">
-        <v>255.2640175275256</v>
+        <v>310.6989482541476</v>
       </c>
       <c r="E25" t="n">
-        <v>255.2640175275256</v>
+        <v>162.7858546717545</v>
       </c>
       <c r="F25" t="n">
-        <v>255.2640175275256</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="G25" t="n">
-        <v>255.2640175275256</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H25" t="n">
-        <v>93.4982808641594</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I25" t="n">
-        <v>93.4982808641594</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J25" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K25" t="n">
-        <v>20.74594372277238</v>
+        <v>20.74594372277239</v>
       </c>
       <c r="L25" t="n">
-        <v>82.47875529922212</v>
+        <v>82.47875529922213</v>
       </c>
       <c r="M25" t="n">
-        <v>157.9564726222213</v>
+        <v>157.9564726222214</v>
       </c>
       <c r="N25" t="n">
         <v>237.0741149501259</v>
@@ -6175,22 +6175,22 @@
         <v>319.4411870795269</v>
       </c>
       <c r="T25" t="n">
-        <v>255.2640175275256</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="U25" t="n">
-        <v>255.2640175275256</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="V25" t="n">
-        <v>255.2640175275256</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="W25" t="n">
-        <v>255.2640175275256</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="X25" t="n">
-        <v>255.2640175275256</v>
+        <v>319.4411870795269</v>
       </c>
       <c r="Y25" t="n">
-        <v>255.2640175275256</v>
+        <v>319.4411870795269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1474.852168841945</v>
+        <v>1474.852168841946</v>
       </c>
       <c r="C26" t="n">
-        <v>1256.396813742803</v>
+        <v>1256.396813742804</v>
       </c>
       <c r="D26" t="n">
-        <v>1048.638276977321</v>
+        <v>1048.638276977322</v>
       </c>
       <c r="E26" t="n">
-        <v>813.3571862203466</v>
+        <v>813.3571862203476</v>
       </c>
       <c r="F26" t="n">
-        <v>552.8784432720083</v>
+        <v>552.8784432720092</v>
       </c>
       <c r="G26" t="n">
         <v>284.4144732357358</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41066049483337</v>
+        <v>97.41066049483339</v>
       </c>
       <c r="I26" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J26" t="n">
-        <v>235.1029331023905</v>
+        <v>235.1029331023913</v>
       </c>
       <c r="K26" t="n">
-        <v>551.2803454048144</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L26" t="n">
-        <v>960.3133146464265</v>
+        <v>960.3133146464274</v>
       </c>
       <c r="M26" t="n">
-        <v>1415.424320284888</v>
+        <v>1415.424320284889</v>
       </c>
       <c r="N26" t="n">
-        <v>1860.880600751947</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O26" t="n">
-        <v>2244.545302124366</v>
+        <v>2244.545302124367</v>
       </c>
       <c r="P26" t="n">
-        <v>2555.933796409424</v>
+        <v>2555.933796409425</v>
       </c>
       <c r="Q26" t="n">
-        <v>2749.288476315057</v>
+        <v>2749.288476315058</v>
       </c>
       <c r="R26" t="n">
-        <v>2780.849823371874</v>
+        <v>2780.849823371875</v>
       </c>
       <c r="S26" t="n">
-        <v>2732.225106987911</v>
+        <v>2732.225106987912</v>
       </c>
       <c r="T26" t="n">
-        <v>2659.688041972994</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U26" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V26" t="n">
-        <v>2375.797107047995</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W26" t="n">
-        <v>2173.53561361915</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X26" t="n">
-        <v>1950.57701719934</v>
+        <v>1950.577017199341</v>
       </c>
       <c r="Y26" t="n">
-        <v>1710.944847064798</v>
+        <v>1710.944847064799</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>782.8151916130464</v>
+        <v>534.269286547117</v>
       </c>
       <c r="C27" t="n">
-        <v>608.3621623319194</v>
+        <v>510.3234191072593</v>
       </c>
       <c r="D27" t="n">
-        <v>459.4277526706682</v>
+        <v>361.389009446008</v>
       </c>
       <c r="E27" t="n">
-        <v>300.1902976652127</v>
+        <v>202.1515544405525</v>
       </c>
       <c r="F27" t="n">
-        <v>153.6557396920976</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="G27" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="H27" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I27" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J27" t="n">
         <v>80.96703311392722</v>
@@ -6333,22 +6333,22 @@
         <v>1984.273509194222</v>
       </c>
       <c r="T27" t="n">
-        <v>1933.729713023495</v>
+        <v>1835.690969798835</v>
       </c>
       <c r="U27" t="n">
-        <v>1856.031792563545</v>
+        <v>1607.485887497616</v>
       </c>
       <c r="V27" t="n">
-        <v>1620.879684331803</v>
+        <v>1372.333779265873</v>
       </c>
       <c r="W27" t="n">
-        <v>1366.642327603601</v>
+        <v>1118.096422537672</v>
       </c>
       <c r="X27" t="n">
-        <v>1158.790827398068</v>
+        <v>910.2449223321389</v>
       </c>
       <c r="Y27" t="n">
-        <v>951.0305286331145</v>
+        <v>702.4846235671851</v>
       </c>
     </row>
     <row r="28">
@@ -6361,25 +6361,25 @@
         <v>104.2490815640023</v>
       </c>
       <c r="C28" t="n">
-        <v>85.82006047736469</v>
+        <v>85.82006047736471</v>
       </c>
       <c r="D28" t="n">
-        <v>85.82006047736469</v>
+        <v>85.82006047736471</v>
       </c>
       <c r="E28" t="n">
-        <v>85.82006047736469</v>
+        <v>85.82006047736471</v>
       </c>
       <c r="F28" t="n">
-        <v>85.82006047736469</v>
+        <v>85.82006047736471</v>
       </c>
       <c r="G28" t="n">
-        <v>66.87557128953434</v>
+        <v>66.87557128953435</v>
       </c>
       <c r="H28" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I28" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J28" t="n">
         <v>127.0709793341876</v>
@@ -6391,7 +6391,7 @@
         <v>341.1658967801936</v>
       </c>
       <c r="M28" t="n">
-        <v>442.6864855463803</v>
+        <v>416.6436141031929</v>
       </c>
       <c r="N28" t="n">
         <v>521.8041278742849</v>
@@ -6424,10 +6424,10 @@
         <v>283.1581909119815</v>
       </c>
       <c r="X28" t="n">
-        <v>205.6758018552334</v>
+        <v>205.6758018552335</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.3903845529726</v>
+        <v>135.3903845529727</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1474.852168841945</v>
+        <v>1474.852168841946</v>
       </c>
       <c r="C29" t="n">
-        <v>1256.396813742802</v>
+        <v>1256.396813742803</v>
       </c>
       <c r="D29" t="n">
-        <v>1048.638276977321</v>
+        <v>1048.638276977322</v>
       </c>
       <c r="E29" t="n">
-        <v>813.3571862203459</v>
+        <v>813.3571862203466</v>
       </c>
       <c r="F29" t="n">
-        <v>552.8784432720075</v>
+        <v>552.8784432720084</v>
       </c>
       <c r="G29" t="n">
-        <v>284.4144732357356</v>
+        <v>284.4144732357365</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41066049483348</v>
+        <v>97.41066049483346</v>
       </c>
       <c r="I29" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J29" t="n">
         <v>235.1029331023913</v>
@@ -6467,10 +6467,10 @@
         <v>551.2803454048151</v>
       </c>
       <c r="L29" t="n">
-        <v>960.3133146464277</v>
+        <v>960.3133146464271</v>
       </c>
       <c r="M29" t="n">
-        <v>1415.42432028489</v>
+        <v>1415.424320284889</v>
       </c>
       <c r="N29" t="n">
         <v>1860.880600751948</v>
@@ -6482,31 +6482,31 @@
         <v>2555.933796409425</v>
       </c>
       <c r="Q29" t="n">
-        <v>2749.288476315057</v>
+        <v>2749.288476315058</v>
       </c>
       <c r="R29" t="n">
-        <v>2780.849823371874</v>
+        <v>2780.849823371875</v>
       </c>
       <c r="S29" t="n">
-        <v>2732.225106987911</v>
+        <v>2732.225106987912</v>
       </c>
       <c r="T29" t="n">
-        <v>2659.688041972994</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U29" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V29" t="n">
-        <v>2375.797107047995</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W29" t="n">
-        <v>2173.53561361915</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X29" t="n">
-        <v>1950.57701719934</v>
+        <v>1950.577017199341</v>
       </c>
       <c r="Y29" t="n">
-        <v>1710.944847064797</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>782.8151916130462</v>
+        <v>782.8151916130463</v>
       </c>
       <c r="C30" t="n">
-        <v>608.3621623319192</v>
+        <v>608.3621623319193</v>
       </c>
       <c r="D30" t="n">
-        <v>552.636207916747</v>
+        <v>459.427752670668</v>
       </c>
       <c r="E30" t="n">
-        <v>393.3987529112916</v>
+        <v>300.1902976652125</v>
       </c>
       <c r="F30" t="n">
-        <v>246.8641949381766</v>
+        <v>153.6557396920975</v>
       </c>
       <c r="G30" t="n">
-        <v>246.8641949381766</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2161386249525</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I30" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J30" t="n">
         <v>80.96703311392722</v>
@@ -6585,7 +6585,7 @@
         <v>1008.283665556799</v>
       </c>
       <c r="Y30" t="n">
-        <v>951.0305286331143</v>
+        <v>800.5233667918451</v>
       </c>
     </row>
     <row r="31">
@@ -6598,73 +6598,73 @@
         <v>104.2490815640026</v>
       </c>
       <c r="C31" t="n">
-        <v>85.82006047736492</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="D31" t="n">
-        <v>85.82006047736492</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="E31" t="n">
-        <v>85.82006047736492</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="F31" t="n">
-        <v>85.82006047736492</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="G31" t="n">
-        <v>66.87557128953445</v>
+        <v>66.87557128953443</v>
       </c>
       <c r="H31" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I31" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J31" t="n">
-        <v>55.61699646743749</v>
+        <v>127.0709793341875</v>
       </c>
       <c r="K31" t="n">
-        <v>60.46703301636572</v>
+        <v>157.9638873263046</v>
       </c>
       <c r="L31" t="n">
-        <v>122.1998445928155</v>
+        <v>367.2087682233823</v>
       </c>
       <c r="M31" t="n">
-        <v>197.6775619158147</v>
+        <v>590.1985548670095</v>
       </c>
       <c r="N31" t="n">
-        <v>374.2920585536586</v>
+        <v>669.3161971949141</v>
       </c>
       <c r="O31" t="n">
-        <v>578.8657806111009</v>
+        <v>726.3778499317285</v>
       </c>
       <c r="P31" t="n">
-        <v>751.6832693243155</v>
+        <v>751.6832693243151</v>
       </c>
       <c r="Q31" t="n">
-        <v>833.280419187918</v>
+        <v>833.2804191879177</v>
       </c>
       <c r="R31" t="n">
-        <v>815.3240688659242</v>
+        <v>815.3240688659239</v>
       </c>
       <c r="S31" t="n">
-        <v>743.6682809692894</v>
+        <v>743.6682809692891</v>
       </c>
       <c r="T31" t="n">
-        <v>664.9366203819504</v>
+        <v>664.9366203819501</v>
       </c>
       <c r="U31" t="n">
-        <v>526.2455254722912</v>
+        <v>526.245525472291</v>
       </c>
       <c r="V31" t="n">
-        <v>422.0681991076735</v>
+        <v>422.0681991076734</v>
       </c>
       <c r="W31" t="n">
-        <v>283.1581909119822</v>
+        <v>283.158190911982</v>
       </c>
       <c r="X31" t="n">
-        <v>205.675801855234</v>
+        <v>205.6758018552339</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.3903845529731</v>
+        <v>135.390384552973</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>1474.852168841945</v>
       </c>
       <c r="C32" t="n">
-        <v>1256.396813742803</v>
+        <v>1256.396813742802</v>
       </c>
       <c r="D32" t="n">
-        <v>1048.638276977322</v>
+        <v>1048.638276977321</v>
       </c>
       <c r="E32" t="n">
-        <v>813.3571862203465</v>
+        <v>813.3571862203459</v>
       </c>
       <c r="F32" t="n">
-        <v>552.8784432720083</v>
+        <v>552.8784432720073</v>
       </c>
       <c r="G32" t="n">
-        <v>284.4144732357365</v>
+        <v>284.4144732357354</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41066049483339</v>
+        <v>97.41066049483346</v>
       </c>
       <c r="I32" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J32" t="n">
-        <v>235.1029331023914</v>
+        <v>235.1029331023913</v>
       </c>
       <c r="K32" t="n">
-        <v>551.2803454048153</v>
+        <v>551.2803454048151</v>
       </c>
       <c r="L32" t="n">
-        <v>960.3133146464274</v>
+        <v>960.3133146464271</v>
       </c>
       <c r="M32" t="n">
         <v>1415.424320284889</v>
       </c>
       <c r="N32" t="n">
-        <v>1860.880600751947</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O32" t="n">
-        <v>2244.545302124366</v>
+        <v>2244.545302124367</v>
       </c>
       <c r="P32" t="n">
-        <v>2555.933796409424</v>
+        <v>2555.933796409425</v>
       </c>
       <c r="Q32" t="n">
-        <v>2749.288476315057</v>
+        <v>2749.288476315058</v>
       </c>
       <c r="R32" t="n">
-        <v>2780.849823371874</v>
+        <v>2780.849823371875</v>
       </c>
       <c r="S32" t="n">
         <v>2732.225106987912</v>
@@ -6743,7 +6743,7 @@
         <v>1950.57701719934</v>
       </c>
       <c r="Y32" t="n">
-        <v>1710.944847064798</v>
+        <v>1710.944847064797</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>823.2255271774071</v>
+        <v>632.308029771777</v>
       </c>
       <c r="C33" t="n">
-        <v>648.7724978962801</v>
+        <v>457.85500049065</v>
       </c>
       <c r="D33" t="n">
-        <v>499.8380882350288</v>
+        <v>457.85500049065</v>
       </c>
       <c r="E33" t="n">
-        <v>340.6006332295733</v>
+        <v>298.6175454851945</v>
       </c>
       <c r="F33" t="n">
-        <v>194.0660752564583</v>
+        <v>152.0829875120795</v>
       </c>
       <c r="G33" t="n">
-        <v>55.61699646743749</v>
+        <v>152.0829875120795</v>
       </c>
       <c r="H33" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I33" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J33" t="n">
         <v>80.96703311392722</v>
@@ -6801,28 +6801,28 @@
         <v>2001.950371853511</v>
       </c>
       <c r="R33" t="n">
-        <v>1918.273847981468</v>
+        <v>2001.950371853511</v>
       </c>
       <c r="S33" t="n">
-        <v>1750.089823480909</v>
+        <v>1984.273509194222</v>
       </c>
       <c r="T33" t="n">
-        <v>1549.038865468913</v>
+        <v>1933.729713023495</v>
       </c>
       <c r="U33" t="n">
-        <v>1444.920642604098</v>
+        <v>1705.524630722276</v>
       </c>
       <c r="V33" t="n">
-        <v>1209.768534372356</v>
+        <v>1470.372522490533</v>
       </c>
       <c r="W33" t="n">
-        <v>1106.038339485423</v>
+        <v>1216.135165762332</v>
       </c>
       <c r="X33" t="n">
-        <v>1048.69400112116</v>
+        <v>1008.283665556799</v>
       </c>
       <c r="Y33" t="n">
-        <v>991.4408641974751</v>
+        <v>800.5233667918451</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.77865245295376</v>
+        <v>98.16140348555203</v>
       </c>
       <c r="C34" t="n">
-        <v>79.34963136631617</v>
+        <v>79.73238239891435</v>
       </c>
       <c r="D34" t="n">
-        <v>79.732382398914</v>
+        <v>79.73238239891435</v>
       </c>
       <c r="E34" t="n">
-        <v>82.27482869943857</v>
+        <v>82.27482869943884</v>
       </c>
       <c r="F34" t="n">
-        <v>85.82006047736469</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="G34" t="n">
-        <v>66.87557128953434</v>
+        <v>66.87557128953443</v>
       </c>
       <c r="H34" t="n">
-        <v>55.61699646743749</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I34" t="n">
-        <v>56.19512417614204</v>
+        <v>56.19512417614197</v>
       </c>
       <c r="J34" t="n">
-        <v>127.6491070428921</v>
+        <v>127.649107042892</v>
       </c>
       <c r="K34" t="n">
-        <v>280.0112129124484</v>
+        <v>132.4991435918202</v>
       </c>
       <c r="L34" t="n">
-        <v>341.7440244888982</v>
+        <v>194.2319551682699</v>
       </c>
       <c r="M34" t="n">
-        <v>417.2217418118974</v>
+        <v>269.7096724912691</v>
       </c>
       <c r="N34" t="n">
-        <v>643.8514534604301</v>
+        <v>368.2043804752077</v>
       </c>
       <c r="O34" t="n">
-        <v>719.9074208206789</v>
+        <v>572.77810253265</v>
       </c>
       <c r="P34" t="n">
-        <v>745.2128402132655</v>
+        <v>745.5955912458645</v>
       </c>
       <c r="Q34" t="n">
-        <v>826.8099900768682</v>
+        <v>827.1927411094671</v>
       </c>
       <c r="R34" t="n">
-        <v>808.8536397548745</v>
+        <v>809.2363907874733</v>
       </c>
       <c r="S34" t="n">
-        <v>737.1978518582398</v>
+        <v>737.5806028908385</v>
       </c>
       <c r="T34" t="n">
-        <v>658.4661912709009</v>
+        <v>658.8489423034996</v>
       </c>
       <c r="U34" t="n">
-        <v>519.7750963612418</v>
+        <v>520.1578473938405</v>
       </c>
       <c r="V34" t="n">
-        <v>415.5977699966243</v>
+        <v>415.9805210292228</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6877618009329</v>
+        <v>277.0705128335314</v>
       </c>
       <c r="X34" t="n">
-        <v>199.2053727441849</v>
+        <v>199.5881237767834</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.9199554419241</v>
+        <v>129.3027064745225</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C35" t="n">
-        <v>933.9068305773297</v>
+        <v>933.9068305773295</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1083762046951</v>
+        <v>779.1083762046949</v>
       </c>
       <c r="E35" t="n">
-        <v>596.7873678405668</v>
+        <v>596.7873678405663</v>
       </c>
       <c r="F35" t="n">
-        <v>389.268707285075</v>
+        <v>389.2687072850745</v>
       </c>
       <c r="G35" t="n">
         <v>173.7648196416495</v>
@@ -6932,28 +6932,28 @@
         <v>39.72108929359334</v>
       </c>
       <c r="I35" t="n">
-        <v>50.66529593357136</v>
+        <v>50.66529593357137</v>
       </c>
       <c r="J35" t="n">
         <v>82.63916324789719</v>
       </c>
       <c r="K35" t="n">
-        <v>385.9838875839828</v>
+        <v>251.304506229693</v>
       </c>
       <c r="L35" t="n">
-        <v>647.5047875049669</v>
+        <v>512.8254061506771</v>
       </c>
       <c r="M35" t="n">
-        <v>955.1037238228007</v>
+        <v>820.4243424685109</v>
       </c>
       <c r="N35" t="n">
-        <v>1253.047934969231</v>
+        <v>1118.368553614941</v>
       </c>
       <c r="O35" t="n">
-        <v>1489.200567021022</v>
+        <v>1354.521185666732</v>
       </c>
       <c r="P35" t="n">
-        <v>1852.495238059309</v>
+        <v>1653.076991985453</v>
       </c>
       <c r="Q35" t="n">
         <v>1898.337848644314</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>888.1000256620648</v>
+        <v>600.9562575559064</v>
       </c>
       <c r="C36" t="n">
-        <v>713.6469963809378</v>
+        <v>426.5032282747794</v>
       </c>
       <c r="D36" t="n">
-        <v>564.7125867196866</v>
+        <v>277.5688186135282</v>
       </c>
       <c r="E36" t="n">
-        <v>405.4751317142311</v>
+        <v>118.3313636080726</v>
       </c>
       <c r="F36" t="n">
-        <v>258.9405737411161</v>
+        <v>118.3313636080726</v>
       </c>
       <c r="G36" t="n">
-        <v>150.3691456068174</v>
+        <v>118.3313636080726</v>
       </c>
       <c r="H36" t="n">
         <v>39.72108929359334</v>
@@ -7014,16 +7014,16 @@
         <v>39.72108929359334</v>
       </c>
       <c r="J36" t="n">
-        <v>65.07112594008333</v>
+        <v>65.07112594008322</v>
       </c>
       <c r="K36" t="n">
-        <v>235.0192193781751</v>
+        <v>235.0192193781752</v>
       </c>
       <c r="L36" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898792</v>
       </c>
       <c r="M36" t="n">
-        <v>915.242664967083</v>
+        <v>915.2426649670833</v>
       </c>
       <c r="N36" t="n">
         <v>1331.582698579976</v>
@@ -7038,28 +7038,28 @@
         <v>1986.054464679667</v>
       </c>
       <c r="R36" t="n">
-        <v>1986.054464679667</v>
+        <v>1902.377940807624</v>
       </c>
       <c r="S36" t="n">
-        <v>1986.054464679667</v>
+        <v>1902.377940807624</v>
       </c>
       <c r="T36" t="n">
-        <v>1986.054464679667</v>
+        <v>1902.377940807624</v>
       </c>
       <c r="U36" t="n">
-        <v>1961.316626612564</v>
+        <v>1674.172858506405</v>
       </c>
       <c r="V36" t="n">
-        <v>1726.164518380821</v>
+        <v>1439.020750274663</v>
       </c>
       <c r="W36" t="n">
-        <v>1471.92716165262</v>
+        <v>1184.783393546461</v>
       </c>
       <c r="X36" t="n">
-        <v>1264.075661447087</v>
+        <v>976.9318933409284</v>
       </c>
       <c r="Y36" t="n">
-        <v>1056.315362682133</v>
+        <v>769.1715945759745</v>
       </c>
     </row>
     <row r="37">
@@ -7093,28 +7093,28 @@
         <v>39.72108929359334</v>
       </c>
       <c r="J37" t="n">
-        <v>39.72108929359334</v>
+        <v>45.38891695093614</v>
       </c>
       <c r="K37" t="n">
-        <v>44.57112584252157</v>
+        <v>50.23895349986437</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3039374189713</v>
+        <v>111.9717650763141</v>
       </c>
       <c r="M37" t="n">
-        <v>181.7816547419705</v>
+        <v>187.4494823993133</v>
       </c>
       <c r="N37" t="n">
-        <v>260.8992970698751</v>
+        <v>266.5671247272179</v>
       </c>
       <c r="O37" t="n">
-        <v>317.9609498066894</v>
+        <v>323.6287774640323</v>
       </c>
       <c r="P37" t="n">
-        <v>343.266369199276</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="Q37" t="n">
-        <v>343.266369199276</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="R37" t="n">
         <v>348.9341968566189</v>
@@ -7135,7 +7135,7 @@
         <v>81.56873086690938</v>
       </c>
       <c r="X37" t="n">
-        <v>57.04642420300774</v>
+        <v>57.04642420300775</v>
       </c>
       <c r="Y37" t="n">
         <v>39.72108929359334</v>
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1099.402103283626</v>
+        <v>1099.402103283627</v>
       </c>
       <c r="C38" t="n">
-        <v>933.9068305773295</v>
+        <v>933.9068305773308</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1083762046949</v>
+        <v>779.108376204696</v>
       </c>
       <c r="E38" t="n">
-        <v>596.7873678405663</v>
+        <v>596.7873678405675</v>
       </c>
       <c r="F38" t="n">
-        <v>389.2687072850745</v>
+        <v>389.2687072850761</v>
       </c>
       <c r="G38" t="n">
-        <v>173.7648196416495</v>
+        <v>173.7648196416494</v>
       </c>
       <c r="H38" t="n">
         <v>39.72108929359334</v>
       </c>
       <c r="I38" t="n">
-        <v>50.66529593357135</v>
+        <v>50.66529593357146</v>
       </c>
       <c r="J38" t="n">
-        <v>282.0574093217539</v>
+        <v>282.0574093217541</v>
       </c>
       <c r="K38" t="n">
-        <v>450.7227523035497</v>
+        <v>585.4021336578398</v>
       </c>
       <c r="L38" t="n">
-        <v>846.9230335788243</v>
+        <v>846.9230335788239</v>
       </c>
       <c r="M38" t="n">
         <v>1154.521969896658</v>
@@ -7190,7 +7190,7 @@
         <v>1688.618813094879</v>
       </c>
       <c r="P38" t="n">
-        <v>1852.495238059309</v>
+        <v>1852.49523805931</v>
       </c>
       <c r="Q38" t="n">
         <v>1898.337848644314</v>
@@ -7202,22 +7202,22 @@
         <v>1986.054464679667</v>
       </c>
       <c r="T38" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U38" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V38" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W38" t="n">
-        <v>1639.205300882292</v>
+        <v>1639.205300882293</v>
       </c>
       <c r="X38" t="n">
-        <v>1469.206786855328</v>
+        <v>1469.206786855329</v>
       </c>
       <c r="Y38" t="n">
-        <v>1282.534699113632</v>
+        <v>1282.534699113633</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>668.8805412145422</v>
+        <v>600.5452737108059</v>
       </c>
       <c r="C39" t="n">
-        <v>494.4275119334151</v>
+        <v>426.0922444296789</v>
       </c>
       <c r="D39" t="n">
-        <v>345.4931022721639</v>
+        <v>426.0922444296789</v>
       </c>
       <c r="E39" t="n">
-        <v>186.2556472667084</v>
+        <v>266.8547894242234</v>
       </c>
       <c r="F39" t="n">
-        <v>39.72108929359334</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="G39" t="n">
-        <v>39.72108929359334</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="H39" t="n">
-        <v>39.72108929359334</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="I39" t="n">
         <v>39.72108929359334</v>
       </c>
       <c r="J39" t="n">
-        <v>65.07112594008311</v>
+        <v>65.07112594008356</v>
       </c>
       <c r="K39" t="n">
-        <v>235.0192193781749</v>
+        <v>235.0192193781753</v>
       </c>
       <c r="L39" t="n">
-        <v>524.9398001898787</v>
+        <v>524.9398001898792</v>
       </c>
       <c r="M39" t="n">
-        <v>915.2426649670829</v>
+        <v>915.2426649670832</v>
       </c>
       <c r="N39" t="n">
         <v>1331.582698579976</v>
@@ -7275,28 +7275,28 @@
         <v>1986.054464679667</v>
       </c>
       <c r="R39" t="n">
-        <v>1970.30222446626</v>
+        <v>1902.377940807624</v>
       </c>
       <c r="S39" t="n">
-        <v>1970.30222446626</v>
+        <v>1902.377940807624</v>
       </c>
       <c r="T39" t="n">
-        <v>1970.30222446626</v>
+        <v>1901.966956962523</v>
       </c>
       <c r="U39" t="n">
-        <v>1742.097142165041</v>
+        <v>1673.761874661305</v>
       </c>
       <c r="V39" t="n">
-        <v>1506.945033933298</v>
+        <v>1438.609766429562</v>
       </c>
       <c r="W39" t="n">
-        <v>1252.707677205097</v>
+        <v>1184.372409701361</v>
       </c>
       <c r="X39" t="n">
-        <v>1044.856176999564</v>
+        <v>976.5209094958277</v>
       </c>
       <c r="Y39" t="n">
-        <v>837.0958782346102</v>
+        <v>768.7606107308739</v>
       </c>
     </row>
     <row r="40">
@@ -7327,52 +7327,52 @@
         <v>39.72108929359334</v>
       </c>
       <c r="I40" t="n">
-        <v>45.3889169509363</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="J40" t="n">
-        <v>45.3889169509363</v>
+        <v>45.38891695093545</v>
       </c>
       <c r="K40" t="n">
-        <v>50.23895349986452</v>
+        <v>50.23895349986368</v>
       </c>
       <c r="L40" t="n">
-        <v>111.9717650763142</v>
+        <v>111.9717650763134</v>
       </c>
       <c r="M40" t="n">
-        <v>187.4494823993134</v>
+        <v>187.4494823993126</v>
       </c>
       <c r="N40" t="n">
-        <v>266.567124727218</v>
+        <v>266.5671247272172</v>
       </c>
       <c r="O40" t="n">
-        <v>323.6287774640323</v>
+        <v>323.6287774640316</v>
       </c>
       <c r="P40" t="n">
-        <v>348.9341968566189</v>
+        <v>348.9341968566182</v>
       </c>
       <c r="Q40" t="n">
-        <v>348.9341968566189</v>
+        <v>348.9341968566182</v>
       </c>
       <c r="R40" t="n">
-        <v>348.9341968566189</v>
+        <v>348.9341968566182</v>
       </c>
       <c r="S40" t="n">
-        <v>330.2384913528306</v>
+        <v>330.23849135283</v>
       </c>
       <c r="T40" t="n">
-        <v>304.4669131583381</v>
+        <v>304.4669131583377</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7359006415255</v>
+        <v>218.7359006415251</v>
       </c>
       <c r="V40" t="n">
-        <v>167.5186566697543</v>
+        <v>167.518656669754</v>
       </c>
       <c r="W40" t="n">
-        <v>81.56873086690938</v>
+        <v>81.56873086690921</v>
       </c>
       <c r="X40" t="n">
-        <v>57.04642420300774</v>
+        <v>57.04642420300766</v>
       </c>
       <c r="Y40" t="n">
         <v>39.72108929359334</v>
@@ -7388,52 +7388,52 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C41" t="n">
-        <v>933.9068305773301</v>
+        <v>933.9068305773294</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1083762046953</v>
+        <v>779.1083762046947</v>
       </c>
       <c r="E41" t="n">
-        <v>596.7873678405668</v>
+        <v>596.7873678405663</v>
       </c>
       <c r="F41" t="n">
-        <v>389.2687072850751</v>
+        <v>389.2687072850748</v>
       </c>
       <c r="G41" t="n">
-        <v>173.7648196416494</v>
+        <v>173.7648196416495</v>
       </c>
       <c r="H41" t="n">
         <v>39.72108929359334</v>
       </c>
       <c r="I41" t="n">
-        <v>50.66529593357144</v>
+        <v>50.66529593357137</v>
       </c>
       <c r="J41" t="n">
-        <v>82.63916324789727</v>
+        <v>232.7872469856602</v>
       </c>
       <c r="K41" t="n">
-        <v>251.3045062296931</v>
+        <v>401.452589967456</v>
       </c>
       <c r="L41" t="n">
-        <v>512.8254061506772</v>
+        <v>662.9734898884401</v>
       </c>
       <c r="M41" t="n">
-        <v>820.424342468511</v>
+        <v>1154.521969896658</v>
       </c>
       <c r="N41" t="n">
-        <v>1257.297027194538</v>
+        <v>1452.466181043088</v>
       </c>
       <c r="O41" t="n">
-        <v>1493.449659246329</v>
+        <v>1688.618813094879</v>
       </c>
       <c r="P41" t="n">
-        <v>1657.326084210759</v>
+        <v>1852.49523805931</v>
       </c>
       <c r="Q41" t="n">
-        <v>1902.586940869621</v>
+        <v>1898.337848644314</v>
       </c>
       <c r="R41" t="n">
-        <v>1986.054464679667</v>
+        <v>1981.80537245436</v>
       </c>
       <c r="S41" t="n">
         <v>1986.054464679667</v>
@@ -7445,7 +7445,7 @@
         <v>1916.102355027745</v>
       </c>
       <c r="V41" t="n">
-        <v>1788.506711918291</v>
+        <v>1788.50671191829</v>
       </c>
       <c r="W41" t="n">
         <v>1639.205300882292</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>684.6327814279489</v>
+        <v>231.7212750433514</v>
       </c>
       <c r="C42" t="n">
-        <v>510.1797521468219</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="D42" t="n">
-        <v>361.2453424855706</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="E42" t="n">
-        <v>266.8547894242234</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="F42" t="n">
         <v>120.3202314511084</v>
@@ -7488,7 +7488,7 @@
         <v>39.72108929359334</v>
       </c>
       <c r="J42" t="n">
-        <v>65.07112594008305</v>
+        <v>65.07112594008306</v>
       </c>
       <c r="K42" t="n">
         <v>235.0192193781748</v>
@@ -7512,28 +7512,28 @@
         <v>1986.054464679667</v>
       </c>
       <c r="R42" t="n">
-        <v>1986.054464679667</v>
+        <v>1902.377940807624</v>
       </c>
       <c r="S42" t="n">
-        <v>1986.054464679667</v>
+        <v>1734.193916307065</v>
       </c>
       <c r="T42" t="n">
-        <v>1986.054464679667</v>
+        <v>1533.142958295069</v>
       </c>
       <c r="U42" t="n">
-        <v>1757.849382378448</v>
+        <v>1304.93787599385</v>
       </c>
       <c r="V42" t="n">
-        <v>1522.697274146705</v>
+        <v>1069.785767762108</v>
       </c>
       <c r="W42" t="n">
-        <v>1268.459917418504</v>
+        <v>815.5484110339062</v>
       </c>
       <c r="X42" t="n">
-        <v>1060.608417212971</v>
+        <v>607.6969108283733</v>
       </c>
       <c r="Y42" t="n">
-        <v>852.848118448017</v>
+        <v>399.9366120634194</v>
       </c>
     </row>
     <row r="43">
@@ -7576,40 +7576,40 @@
         <v>106.3039374189713</v>
       </c>
       <c r="M43" t="n">
-        <v>181.7816547419705</v>
+        <v>181.7816547419706</v>
       </c>
       <c r="N43" t="n">
-        <v>260.8992970698751</v>
+        <v>260.8992970698752</v>
       </c>
       <c r="O43" t="n">
-        <v>317.9609498066894</v>
+        <v>317.9609498066895</v>
       </c>
       <c r="P43" t="n">
-        <v>343.266369199276</v>
+        <v>343.2663691992761</v>
       </c>
       <c r="Q43" t="n">
-        <v>343.266369199276</v>
+        <v>343.2663691992761</v>
       </c>
       <c r="R43" t="n">
-        <v>348.9341968566182</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S43" t="n">
-        <v>330.23849135283</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T43" t="n">
-        <v>304.4669131583377</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U43" t="n">
-        <v>218.7359006415251</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V43" t="n">
-        <v>167.518656669754</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W43" t="n">
-        <v>81.56873086690919</v>
+        <v>81.56873086690938</v>
       </c>
       <c r="X43" t="n">
-        <v>57.04642420300765</v>
+        <v>57.04642420300775</v>
       </c>
       <c r="Y43" t="n">
         <v>39.72108929359334</v>
@@ -7625,34 +7625,34 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C44" t="n">
-        <v>933.9068305773304</v>
+        <v>933.9068305773297</v>
       </c>
       <c r="D44" t="n">
-        <v>779.1083762046958</v>
+        <v>779.1083762046951</v>
       </c>
       <c r="E44" t="n">
-        <v>596.7873678405672</v>
+        <v>596.7873678405665</v>
       </c>
       <c r="F44" t="n">
-        <v>389.2687072850754</v>
+        <v>389.2687072850747</v>
       </c>
       <c r="G44" t="n">
-        <v>173.7648196416494</v>
+        <v>173.7648196416495</v>
       </c>
       <c r="H44" t="n">
         <v>39.72108929359334</v>
       </c>
       <c r="I44" t="n">
-        <v>50.66529593357144</v>
+        <v>50.66529593357137</v>
       </c>
       <c r="J44" t="n">
-        <v>282.0574093217541</v>
+        <v>282.057409321754</v>
       </c>
       <c r="K44" t="n">
-        <v>450.7227523035499</v>
+        <v>585.4021336578398</v>
       </c>
       <c r="L44" t="n">
-        <v>712.2436522245339</v>
+        <v>846.9230335788239</v>
       </c>
       <c r="M44" t="n">
         <v>1154.521969896658</v>
@@ -7664,7 +7664,7 @@
         <v>1688.618813094879</v>
       </c>
       <c r="P44" t="n">
-        <v>1852.495238059309</v>
+        <v>1852.49523805931</v>
       </c>
       <c r="Q44" t="n">
         <v>1898.337848644314</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>749.4796833720571</v>
+        <v>860.1277396852812</v>
       </c>
       <c r="C45" t="n">
-        <v>575.0266540909302</v>
+        <v>685.6747104041542</v>
       </c>
       <c r="D45" t="n">
-        <v>426.0922444296789</v>
+        <v>536.7403007429029</v>
       </c>
       <c r="E45" t="n">
-        <v>266.8547894242234</v>
+        <v>377.5028457374475</v>
       </c>
       <c r="F45" t="n">
-        <v>120.3202314511084</v>
+        <v>230.9682877643324</v>
       </c>
       <c r="G45" t="n">
-        <v>120.3202314511084</v>
+        <v>230.9682877643324</v>
       </c>
       <c r="H45" t="n">
         <v>120.3202314511084</v>
@@ -7725,7 +7725,7 @@
         <v>39.72108929359334</v>
       </c>
       <c r="J45" t="n">
-        <v>65.07112594008305</v>
+        <v>65.07112594008306</v>
       </c>
       <c r="K45" t="n">
         <v>235.0192193781748</v>
@@ -7749,28 +7749,28 @@
         <v>1986.054464679667</v>
       </c>
       <c r="R45" t="n">
-        <v>1902.377940807624</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="S45" t="n">
-        <v>1734.193916307065</v>
+        <v>1958.082178702883</v>
       </c>
       <c r="T45" t="n">
-        <v>1643.966878155543</v>
+        <v>1958.082178702883</v>
       </c>
       <c r="U45" t="n">
-        <v>1619.22904008844</v>
+        <v>1729.877096401664</v>
       </c>
       <c r="V45" t="n">
-        <v>1587.544176090813</v>
+        <v>1494.724988169922</v>
       </c>
       <c r="W45" t="n">
-        <v>1333.306819362612</v>
+        <v>1240.48763144172</v>
       </c>
       <c r="X45" t="n">
-        <v>1125.455319157079</v>
+        <v>1236.103375470303</v>
       </c>
       <c r="Y45" t="n">
-        <v>917.6950203921251</v>
+        <v>1028.343076705349</v>
       </c>
     </row>
     <row r="46">
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.38891695093545</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="C46" t="n">
-        <v>45.38891695093545</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="D46" t="n">
-        <v>45.38891695093545</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="E46" t="n">
-        <v>45.38891695093545</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="F46" t="n">
-        <v>45.38891695093545</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="G46" t="n">
-        <v>45.38891695093545</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="H46" t="n">
-        <v>45.38891695093545</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="I46" t="n">
-        <v>45.38891695093545</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="J46" t="n">
-        <v>45.38891695093545</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="K46" t="n">
-        <v>50.23895349986368</v>
+        <v>44.57112584252157</v>
       </c>
       <c r="L46" t="n">
-        <v>111.9717650763134</v>
+        <v>106.3039374189713</v>
       </c>
       <c r="M46" t="n">
-        <v>187.4494823993126</v>
+        <v>181.7816547419706</v>
       </c>
       <c r="N46" t="n">
-        <v>266.5671247272172</v>
+        <v>260.8992970698752</v>
       </c>
       <c r="O46" t="n">
-        <v>323.6287774640316</v>
+        <v>317.9609498066895</v>
       </c>
       <c r="P46" t="n">
-        <v>348.9341968566182</v>
+        <v>343.2663691992761</v>
       </c>
       <c r="Q46" t="n">
-        <v>348.9341968566182</v>
+        <v>343.2663691992761</v>
       </c>
       <c r="R46" t="n">
-        <v>348.9341968566182</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S46" t="n">
-        <v>330.23849135283</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T46" t="n">
-        <v>304.4669131583377</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U46" t="n">
-        <v>218.7359006415251</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V46" t="n">
-        <v>167.518656669754</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W46" t="n">
-        <v>81.56873086690919</v>
+        <v>81.56873086690938</v>
       </c>
       <c r="X46" t="n">
-        <v>57.04642420300765</v>
+        <v>57.04642420300775</v>
       </c>
       <c r="Y46" t="n">
         <v>39.72108929359334</v>
@@ -8693,22 +8693,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>173.8002597894599</v>
+        <v>153.4986893777393</v>
       </c>
       <c r="M11" t="n">
-        <v>337.5063768852442</v>
+        <v>337.5063768852443</v>
       </c>
       <c r="N11" t="n">
-        <v>335.092015452278</v>
+        <v>143.5561762181051</v>
       </c>
       <c r="O11" t="n">
-        <v>340.961008762271</v>
+        <v>340.9610087622713</v>
       </c>
       <c r="P11" t="n">
-        <v>156.266965783169</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.0093234023245</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,25 +8769,25 @@
         <v>100.4849377176919</v>
       </c>
       <c r="K12" t="n">
-        <v>92.80049616602126</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>268.6618775031515</v>
+        <v>276.6901134495375</v>
       </c>
       <c r="M12" t="n">
-        <v>270.1585854662799</v>
+        <v>183.4638718317471</v>
       </c>
       <c r="N12" t="n">
-        <v>257.4957255187336</v>
+        <v>58.7968858456817</v>
       </c>
       <c r="O12" t="n">
-        <v>274.9307408922499</v>
+        <v>274.9307408922501</v>
       </c>
       <c r="P12" t="n">
         <v>80.71117119222066</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.3767112212074</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010376</v>
       </c>
       <c r="K14" t="n">
-        <v>153.7763792562195</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>153.4986893777393</v>
+        <v>352.1975290507913</v>
       </c>
       <c r="M14" t="n">
-        <v>337.5063768852441</v>
+        <v>138.8075372121922</v>
       </c>
       <c r="N14" t="n">
-        <v>335.092015452278</v>
+        <v>143.5561762181051</v>
       </c>
       <c r="O14" t="n">
-        <v>333.8030344295871</v>
+        <v>340.9610087622713</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.0093234023245</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>92.80049616602126</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>276.6901134495374</v>
+        <v>77.99127377648554</v>
       </c>
       <c r="M15" t="n">
-        <v>262.130349519894</v>
+        <v>71.45974579322808</v>
       </c>
       <c r="N15" t="n">
-        <v>257.4957255187336</v>
+        <v>250.8954907761255</v>
       </c>
       <c r="O15" t="n">
-        <v>274.9307408922499</v>
+        <v>274.9307408922501</v>
       </c>
       <c r="P15" t="n">
-        <v>80.71117119222066</v>
+        <v>279.4100108652727</v>
       </c>
       <c r="Q15" t="n">
         <v>104.3767112212074</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>136.7997795010376</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>352.1975290507911</v>
+        <v>153.4986893777393</v>
       </c>
       <c r="M17" t="n">
-        <v>138.8075372121922</v>
+        <v>337.5063768852443</v>
       </c>
       <c r="N17" t="n">
-        <v>309.0879186064184</v>
+        <v>157.5650078046492</v>
       </c>
       <c r="O17" t="n">
-        <v>340.961008762271</v>
+        <v>340.9610087622713</v>
       </c>
       <c r="P17" t="n">
-        <v>156.266965783169</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>166.0093234023245</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>177.7705233780454</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>276.6901134495374</v>
+        <v>164.3893021922877</v>
       </c>
       <c r="M18" t="n">
-        <v>270.1585854662799</v>
+        <v>71.45974579322808</v>
       </c>
       <c r="N18" t="n">
         <v>58.7968858456817</v>
       </c>
       <c r="O18" t="n">
-        <v>76.23190121919804</v>
+        <v>274.9307408922501</v>
       </c>
       <c r="P18" t="n">
-        <v>279.4100108652725</v>
+        <v>279.4100108652727</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,25 +9401,25 @@
         <v>136.7997795010376</v>
       </c>
       <c r="K20" t="n">
-        <v>153.7763792562195</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>153.4986893777393</v>
+        <v>173.80025978946</v>
       </c>
       <c r="M20" t="n">
-        <v>316.3395709660161</v>
+        <v>337.5063768852443</v>
       </c>
       <c r="N20" t="n">
-        <v>335.092015452278</v>
+        <v>335.0920154522782</v>
       </c>
       <c r="O20" t="n">
-        <v>340.961008762271</v>
+        <v>340.9610087622713</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>156.266965783169</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>166.0093234023245</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>92.80049616602126</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>77.99127377648554</v>
+        <v>276.6901134495375</v>
       </c>
       <c r="M21" t="n">
-        <v>270.1585854662799</v>
+        <v>71.45974579322808</v>
       </c>
       <c r="N21" t="n">
-        <v>143.7669130577059</v>
+        <v>58.7968858456817</v>
       </c>
       <c r="O21" t="n">
-        <v>274.9307408922499</v>
+        <v>162.6299296350002</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4100108652725</v>
+        <v>279.4100108652727</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>136.7997795010376</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>352.1975290507911</v>
+        <v>174.6705214031622</v>
       </c>
       <c r="M23" t="n">
-        <v>337.5063768852441</v>
+        <v>138.8075372121922</v>
       </c>
       <c r="N23" t="n">
-        <v>335.092015452278</v>
+        <v>335.0920154522782</v>
       </c>
       <c r="O23" t="n">
-        <v>162.5637395009398</v>
+        <v>340.9610087622713</v>
       </c>
       <c r="P23" t="n">
-        <v>156.266965783169</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>166.0093234023245</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>276.6901134495374</v>
+        <v>164.3893021922877</v>
       </c>
       <c r="M24" t="n">
-        <v>157.8577742090299</v>
+        <v>270.1585854662801</v>
       </c>
       <c r="N24" t="n">
         <v>58.7968858456817</v>
       </c>
       <c r="O24" t="n">
-        <v>274.9307408922499</v>
+        <v>76.23190121919804</v>
       </c>
       <c r="P24" t="n">
-        <v>80.71117119222066</v>
+        <v>279.4100108652727</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404091</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404093</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1025192117103</v>
+        <v>5.403679538658395</v>
       </c>
       <c r="C11" t="n">
-        <v>186.6415693192373</v>
+        <v>186.6415693192374</v>
       </c>
       <c r="D11" t="n">
-        <v>176.0517191689127</v>
+        <v>176.0517191689128</v>
       </c>
       <c r="E11" t="n">
-        <v>4.600207947439685</v>
+        <v>203.2990476204916</v>
       </c>
       <c r="F11" t="n">
-        <v>29.54588361688934</v>
+        <v>29.54588361688926</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1500981069955</v>
+        <v>37.45125843394356</v>
       </c>
       <c r="H11" t="n">
-        <v>41.18230352762026</v>
+        <v>41.18230352762023</v>
       </c>
       <c r="I11" t="n">
-        <v>11.7464951582083</v>
+        <v>11.74649515820839</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.67262509955671</v>
+        <v>72.6726250995568</v>
       </c>
       <c r="V11" t="n">
         <v>149.1209360183647</v>
       </c>
       <c r="W11" t="n">
-        <v>170.6096462656428</v>
+        <v>170.6096462656429</v>
       </c>
       <c r="X11" t="n">
-        <v>191.0997782266988</v>
+        <v>191.0997782266989</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.907776531231491</v>
+        <v>207.6066162042834</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.403679538658366</v>
+        <v>204.1025192117103</v>
       </c>
       <c r="C14" t="n">
-        <v>186.6415693192372</v>
+        <v>186.6415693192373</v>
       </c>
       <c r="D14" t="n">
-        <v>176.0517191689126</v>
+        <v>102.9543032812456</v>
       </c>
       <c r="E14" t="n">
-        <v>203.2990476204914</v>
+        <v>4.600207947439515</v>
       </c>
       <c r="F14" t="n">
-        <v>82.47468230271728</v>
+        <v>228.2447232899412</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1500981069954</v>
+        <v>236.1500981069955</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.6726250995566</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>149.1209360183645</v>
+        <v>149.1209360183647</v>
       </c>
       <c r="W14" t="n">
-        <v>170.6096462656427</v>
+        <v>170.6096462656428</v>
       </c>
       <c r="X14" t="n">
-        <v>191.0997782266987</v>
+        <v>191.0997782266988</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.907776531231377</v>
+        <v>8.90777653123132</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.63387170385</v>
       </c>
       <c r="C2" t="n">
         <v>81927.63387170383</v>
@@ -26320,40 +26320,40 @@
         <v>81927.63387170382</v>
       </c>
       <c r="E2" t="n">
+        <v>70304.02178316821</v>
+      </c>
+      <c r="F2" t="n">
         <v>70304.02178316824</v>
       </c>
-      <c r="F2" t="n">
-        <v>70304.02178316822</v>
-      </c>
       <c r="G2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="H2" t="n">
-        <v>82104.17698642825</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642834</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642827</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642834</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>82104.1769864283</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642828</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>306415.527279435</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
         <v>97259.69009554019</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151851.7906719067</v>
+        <v>151851.7906719068</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97259.69009554028</v>
+        <v>97259.69009554019</v>
       </c>
       <c r="M3" t="n">
-        <v>41944.38525513433</v>
+        <v>41944.3852551344</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>21941.98208274509</v>
+        <v>21941.98208274497</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>339717.1480321531</v>
       </c>
       <c r="F4" t="n">
-        <v>339717.1480321532</v>
+        <v>339717.1480321531</v>
       </c>
       <c r="G4" t="n">
         <v>407016.1489321864</v>
@@ -26482,19 +26482,19 @@
         <v>29925.21762447105</v>
       </c>
       <c r="G5" t="n">
-        <v>40145.8737327735</v>
+        <v>40145.87373277351</v>
       </c>
       <c r="H5" t="n">
-        <v>40145.8737327735</v>
+        <v>40145.87373277351</v>
       </c>
       <c r="I5" t="n">
-        <v>40145.8737327735</v>
+        <v>40145.87373277351</v>
       </c>
       <c r="J5" t="n">
+        <v>57622.34556334944</v>
+      </c>
+      <c r="K5" t="n">
         <v>57622.34556334943</v>
-      </c>
-      <c r="K5" t="n">
-        <v>57622.34556334942</v>
       </c>
       <c r="L5" t="n">
         <v>57622.34556334943</v>
@@ -26503,7 +26503,7 @@
         <v>49949.23426624524</v>
       </c>
       <c r="N5" t="n">
-        <v>49949.23426624524</v>
+        <v>49949.23426624525</v>
       </c>
       <c r="O5" t="n">
         <v>49949.23426624524</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404099.9566772613</v>
+        <v>-404104.3702551294</v>
       </c>
       <c r="C6" t="n">
-        <v>-404099.9566772613</v>
+        <v>-404104.3702551295</v>
       </c>
       <c r="D6" t="n">
-        <v>-404099.9566772613</v>
+        <v>-404104.3702551295</v>
       </c>
       <c r="E6" t="n">
-        <v>-605753.8711528908</v>
+        <v>-606048.8750329724</v>
       </c>
       <c r="F6" t="n">
-        <v>-299338.3438734561</v>
+        <v>-299633.3477535375</v>
       </c>
       <c r="G6" t="n">
         <v>-462317.5357740718</v>
       </c>
       <c r="H6" t="n">
-        <v>-365057.8456785317</v>
+        <v>-365057.8456785316</v>
       </c>
       <c r="I6" t="n">
         <v>-365057.8456785316</v>
@@ -26549,16 +26549,16 @@
         <v>-377618.6699605082</v>
       </c>
       <c r="L6" t="n">
-        <v>-474878.3600560485</v>
+        <v>-474878.3600560484</v>
       </c>
       <c r="M6" t="n">
-        <v>-410938.6504731998</v>
+        <v>-410938.6504731999</v>
       </c>
       <c r="N6" t="n">
-        <v>-368994.2652180656</v>
+        <v>-368994.2652180657</v>
       </c>
       <c r="O6" t="n">
-        <v>-390936.2473008106</v>
+        <v>-390936.2473008105</v>
       </c>
       <c r="P6" t="n">
         <v>-368994.2652180656</v>
@@ -26695,16 +26695,16 @@
         <v>178.6313224517702</v>
       </c>
       <c r="F2" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="G2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="J2" t="n">
         <v>149.0020902228566</v>
@@ -26713,19 +26713,19 @@
         <v>149.0020902228565</v>
       </c>
       <c r="L2" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="M2" t="n">
         <v>201.4325717917745</v>
       </c>
       <c r="N2" t="n">
+        <v>201.4325717917746</v>
+      </c>
+      <c r="O2" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="O2" t="n">
-        <v>201.4325717917746</v>
-      </c>
       <c r="P2" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="F4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="G4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="H4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="I4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="J4" t="n">
-        <v>695.2124558429686</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="K4" t="n">
-        <v>695.2124558429686</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="L4" t="n">
-        <v>695.2124558429686</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="M4" t="n">
-        <v>496.5136161699167</v>
+        <v>496.5136161699168</v>
       </c>
       <c r="N4" t="n">
-        <v>496.5136161699167</v>
+        <v>496.5136161699168</v>
       </c>
       <c r="O4" t="n">
-        <v>496.5136161699167</v>
+        <v>496.5136161699168</v>
       </c>
       <c r="P4" t="n">
-        <v>496.5136161699167</v>
+        <v>496.5136161699168</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>178.6313224517702</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>121.5746126194252</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.42747760343127</v>
+        <v>27.4274776034313</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194254</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="M2" t="n">
-        <v>52.43048156891791</v>
+        <v>52.430481568918</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343136</v>
+        <v>27.42747760343121</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>496.5136161699167</v>
+        <v>496.5136161699168</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>178.6313224517702</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>121.5746126194252</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343127</v>
+        <v>27.4274776034313</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28175,19 +28175,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>79.79315073593986</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.83975863332246</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.5021842555528</v>
+        <v>94.98272255526103</v>
       </c>
       <c r="T12" t="n">
-        <v>110.7690854345789</v>
+        <v>0.3416087588241414</v>
       </c>
       <c r="U12" t="n">
-        <v>27.22419180515454</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V12" t="n">
         <v>178.6313224517702</v>
@@ -28248,7 +28248,7 @@
         <v>178.6313224517702</v>
       </c>
       <c r="C13" t="n">
-        <v>178.6313224517702</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>178.6313224517702</v>
@@ -28263,13 +28263,13 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H13" t="n">
-        <v>178.6313224517702</v>
+        <v>160.1480792967325</v>
       </c>
       <c r="I13" t="n">
         <v>178.6313224517702</v>
       </c>
       <c r="J13" t="n">
-        <v>91.12148597699178</v>
+        <v>120.9892304851731</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="C14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="D14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="E14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="F14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="G14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="H14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="I14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>117.1219416806168</v>
       </c>
       <c r="S14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="T14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="X14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
     </row>
     <row r="15">
@@ -28415,16 +28415,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>79.79315073593986</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.83975863332246</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U15" t="n">
-        <v>27.22419180515453</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V15" t="n">
-        <v>34.10174747637342</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W15" t="n">
-        <v>178.6313224517704</v>
+        <v>95.32433131408476</v>
       </c>
       <c r="X15" t="n">
-        <v>97.65357995457448</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="G16" t="n">
         <v>167.7571345188087</v>
       </c>
       <c r="H16" t="n">
-        <v>160.1480792967325</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="I16" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="J16" t="n">
-        <v>178.6313224517704</v>
+        <v>76.82634995341209</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28524,34 +28524,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>25.67963737672225</v>
       </c>
       <c r="Q16" t="n">
-        <v>104.3621184252666</v>
+        <v>66.58072672426809</v>
       </c>
       <c r="R16" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S16" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="T16" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U16" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V16" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W16" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="X16" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.6313224517704</v>
+        <v>178.6313224517702</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I17" t="n">
         <v>190.3778176099785</v>
@@ -28621,16 +28621,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>79.79315073593986</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.54985022747853</v>
       </c>
       <c r="S18" t="n">
         <v>166.5021842555528</v>
@@ -28697,19 +28697,19 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U18" t="n">
-        <v>27.22419180515453</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V18" t="n">
-        <v>34.10174747637342</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>52.99614348786776</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>193.3016671625427</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28725,7 +28725,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28740,10 +28740,10 @@
         <v>160.1480792967325</v>
       </c>
       <c r="I19" t="n">
-        <v>148.4181228403268</v>
+        <v>73.35011870532531</v>
       </c>
       <c r="J19" t="n">
-        <v>76.82634995341209</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,16 +28764,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.58072672426809</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S19" t="n">
         <v>219.9413202405249</v>
       </c>
       <c r="T19" t="n">
-        <v>159.7962108635947</v>
+        <v>226.9464342043221</v>
       </c>
       <c r="U19" t="n">
         <v>286.3062741834191</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I20" t="n">
         <v>190.3778176099785</v>
@@ -28858,16 +28858,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28895,10 +28895,10 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>79.79315073593986</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>82.83975863332246</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3416087588243215</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U21" t="n">
-        <v>27.22419180515453</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V21" t="n">
-        <v>214.9247202339339</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>217.2238881420265</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>7.074145530425454</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>6.983856104252339</v>
       </c>
     </row>
     <row r="22">
@@ -28965,10 +28965,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.7571345188087</v>
@@ -28977,10 +28977,10 @@
         <v>160.1480792967325</v>
       </c>
       <c r="I22" t="n">
-        <v>148.4181228403268</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>76.82634995341209</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.58072672426809</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>166.7788770416304</v>
@@ -29013,7 +29013,7 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U22" t="n">
-        <v>277.6514577462936</v>
+        <v>277.6216465948001</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I23" t="n">
         <v>190.3778176099785</v>
@@ -29095,16 +29095,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5415757500918</v>
+        <v>34.9168115461424</v>
       </c>
       <c r="I24" t="n">
-        <v>79.79315073593986</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,19 +29165,19 @@
         <v>82.83975863332246</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3416087588243215</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U24" t="n">
-        <v>27.22419180515453</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V24" t="n">
-        <v>34.10174747637342</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>243.1832294324484</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -29199,25 +29199,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>139.9606565810869</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.7571345188087</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>160.1480792967325</v>
       </c>
       <c r="I25" t="n">
         <v>148.4181228403268</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>76.82634995341209</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>219.9413202405249</v>
       </c>
       <c r="T25" t="n">
-        <v>163.4110363478408</v>
+        <v>226.9464342043221</v>
       </c>
       <c r="U25" t="n">
         <v>286.3062741834191</v>
@@ -29296,7 +29296,7 @@
         <v>149.0020902228566</v>
       </c>
       <c r="J26" t="n">
-        <v>149.0020902228558</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="K26" t="n">
         <v>149.0020902228566</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>40.00623220871707</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H27" t="n">
         <v>109.5415757500918</v>
@@ -29405,10 +29405,10 @@
         <v>149.0020902228566</v>
       </c>
       <c r="T27" t="n">
-        <v>149.0020902228566</v>
+        <v>51.94373443044316</v>
       </c>
       <c r="U27" t="n">
-        <v>149.0020902228566</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29463,10 +29463,10 @@
         <v>149.0020902228566</v>
       </c>
       <c r="M28" t="n">
-        <v>26.30593075069433</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>26.30593075069436</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29539,10 +29539,10 @@
         <v>149.0020902228565</v>
       </c>
       <c r="L29" t="n">
-        <v>149.0020902228571</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="M29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228569</v>
       </c>
       <c r="N29" t="n">
         <v>149.0020902228565</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>92.2763706936183</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0645880011306</v>
+        <v>40.00623220871719</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>79.79315073593986</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29691,25 +29691,25 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J31" t="n">
-        <v>76.82634995341209</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>26.30593075069584</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="N31" t="n">
-        <v>98.48167102014079</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>149.0020902228565</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="C32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="D32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="E32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="G32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="H32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="I32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="J32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="K32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="M32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228569</v>
       </c>
       <c r="N32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="O32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="P32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Q32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="R32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="S32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="T32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="U32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="V32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="W32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="X32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Y32" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
     </row>
     <row r="33">
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29840,10 +29840,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5415757500918</v>
+        <v>14.04024461589627</v>
       </c>
       <c r="I33" t="n">
         <v>79.79315073593986</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.83975863332246</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="U33" t="n">
-        <v>122.8459908420396</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>149.0020902228566</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>149.0020902228566</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>149.0020902228566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="C34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0020902228566</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="G34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="H34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="I34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="J34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="K34" t="n">
-        <v>149.0020902228566</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>149.0020902228566</v>
+        <v>19.57279359195351</v>
       </c>
       <c r="O34" t="n">
-        <v>19.18617638730754</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="R34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="S34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="T34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="U34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="V34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="W34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="X34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>136.0397791457473</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,10 +30025,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>136.0397791457477</v>
+      </c>
+      <c r="Q35" t="n">
         <v>201.4325717917745</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>201.4325717917745</v>
@@ -30074,13 +30074,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>29.57887414817496</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>31.71740417875731</v>
       </c>
       <c r="I36" t="n">
         <v>79.79315073593986</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.83975863332246</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>166.5021842555528</v>
@@ -30119,7 +30119,7 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U36" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J37" t="n">
-        <v>76.82634995341209</v>
+        <v>82.55142839517248</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>66.58072672426809</v>
       </c>
       <c r="R37" t="n">
-        <v>172.5039554833909</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S37" t="n">
         <v>201.4325717917745</v>
@@ -30220,37 +30220,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="C38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="D38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="E38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="F38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="G38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="H38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="I38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="J38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>136.0397791457474</v>
       </c>
       <c r="L38" t="n">
-        <v>136.0397791457481</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="S38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="T38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="U38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="V38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="W38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="X38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Y38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
     </row>
     <row r="39">
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>109.5415757500918</v>
       </c>
       <c r="I39" t="n">
-        <v>79.79315073593986</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>67.2450408220495</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>166.5021842555528</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0404484318762</v>
+        <v>198.6335744252265</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30399,10 +30399,10 @@
         <v>160.1480792967325</v>
       </c>
       <c r="I40" t="n">
-        <v>154.1432012820873</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J40" t="n">
-        <v>76.82634995341209</v>
+        <v>82.5514283951718</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.5807267242681</v>
+        <v>66.58072672426809</v>
       </c>
       <c r="R40" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="T40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="U40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="V40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="W40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="C41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="D41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="E41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="F41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="G41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="H41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="I41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>151.6647310482455</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,10 +30490,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>185.8076198892765</v>
       </c>
       <c r="N41" t="n">
-        <v>140.3317914945418</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.4325717917746</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="S41" t="n">
-        <v>197.14055944298</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="42">
@@ -30539,16 +30539,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>62.42146583199514</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>64.19843292466717</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0645880011306</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.83975863332246</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>66.58072672426809</v>
       </c>
       <c r="R43" t="n">
-        <v>172.5039554833902</v>
+        <v>172.5039554833907</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="44">
@@ -30694,40 +30694,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="C44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="D44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="E44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="F44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="G44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="H44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="I44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>136.0397791457475</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>136.0397791457473</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="S44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,25 +30821,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.83975863332246</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>138.8096211385371</v>
       </c>
       <c r="T45" t="n">
-        <v>109.7156806618691</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U45" t="n">
-        <v>201.4325717917746</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>201.4325717917746</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.557058623697</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -30900,28 +30900,28 @@
         <v>66.58072672426809</v>
       </c>
       <c r="R46" t="n">
-        <v>166.7788770416304</v>
+        <v>172.5039554833907</v>
       </c>
       <c r="S46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
   </sheetData>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5213169563692972</v>
+        <v>0.5213169563692975</v>
       </c>
       <c r="H38" t="n">
-        <v>5.338937279417067</v>
+        <v>5.33893727941707</v>
       </c>
       <c r="I38" t="n">
-        <v>20.09807196042735</v>
+        <v>20.09807196042736</v>
       </c>
       <c r="J38" t="n">
-        <v>44.24612502564868</v>
+        <v>44.2461250256487</v>
       </c>
       <c r="K38" t="n">
-        <v>66.31347178876105</v>
+        <v>66.31347178876108</v>
       </c>
       <c r="L38" t="n">
-        <v>82.26772559224794</v>
+        <v>82.26772559224798</v>
       </c>
       <c r="M38" t="n">
-        <v>91.53869601508043</v>
+        <v>91.53869601508048</v>
       </c>
       <c r="N38" t="n">
-        <v>93.0198878173647</v>
+        <v>93.01988781736475</v>
       </c>
       <c r="O38" t="n">
-        <v>87.8360423324675</v>
+        <v>87.83604233246754</v>
       </c>
       <c r="P38" t="n">
-        <v>74.96602997210046</v>
+        <v>74.9660299721005</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.29636647212499</v>
+        <v>56.29636647212502</v>
       </c>
       <c r="R38" t="n">
-        <v>32.7471762605329</v>
+        <v>32.74717626053291</v>
       </c>
       <c r="S38" t="n">
-        <v>11.87951014326537</v>
+        <v>11.87951014326538</v>
       </c>
       <c r="T38" t="n">
-        <v>2.2820649765066</v>
+        <v>2.282064976506601</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04170535650954377</v>
+        <v>0.04170535650954379</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2789291620800445</v>
+        <v>0.2789291620800446</v>
       </c>
       <c r="H39" t="n">
-        <v>2.693868486404641</v>
+        <v>2.693868486404642</v>
       </c>
       <c r="I39" t="n">
-        <v>9.603482115475218</v>
+        <v>9.603482115475222</v>
       </c>
       <c r="J39" t="n">
-        <v>26.35268894897473</v>
+        <v>26.35268894897474</v>
       </c>
       <c r="K39" t="n">
-        <v>45.04094280833772</v>
+        <v>45.04094280833773</v>
       </c>
       <c r="L39" t="n">
-        <v>60.56310600338862</v>
+        <v>60.56310600338864</v>
       </c>
       <c r="M39" t="n">
-        <v>70.67428812879021</v>
+        <v>70.67428812879024</v>
       </c>
       <c r="N39" t="n">
-        <v>72.54482623765158</v>
+        <v>72.54482623765161</v>
       </c>
       <c r="O39" t="n">
-        <v>66.36434322524637</v>
+        <v>66.3643432252464</v>
       </c>
       <c r="P39" t="n">
-        <v>53.26323622210955</v>
+        <v>53.26323622210958</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.6050628648141</v>
+        <v>35.60506286481412</v>
       </c>
       <c r="R39" t="n">
         <v>17.31807551932067</v>
       </c>
       <c r="S39" t="n">
-        <v>5.180986848285034</v>
+        <v>5.180986848285036</v>
       </c>
       <c r="T39" t="n">
-        <v>1.124280262945442</v>
+        <v>1.124280262945443</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01835060276842399</v>
+        <v>0.018350602768424</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2338448396500804</v>
+        <v>0.2338448396500805</v>
       </c>
       <c r="H40" t="n">
-        <v>2.07909321070708</v>
+        <v>2.079093210707081</v>
       </c>
       <c r="I40" t="n">
-        <v>7.032352086931511</v>
+        <v>7.032352086931515</v>
       </c>
       <c r="J40" t="n">
-        <v>16.53283016326068</v>
+        <v>16.53283016326069</v>
       </c>
       <c r="K40" t="n">
-        <v>27.16851864298206</v>
+        <v>27.16851864298208</v>
       </c>
       <c r="L40" t="n">
-        <v>34.76635006943106</v>
+        <v>34.76635006943107</v>
       </c>
       <c r="M40" t="n">
-        <v>36.65624154623942</v>
+        <v>36.65624154623944</v>
       </c>
       <c r="N40" t="n">
-        <v>35.78463805299824</v>
+        <v>35.78463805299825</v>
       </c>
       <c r="O40" t="n">
-        <v>33.05290515344956</v>
+        <v>33.05290515344957</v>
       </c>
       <c r="P40" t="n">
-        <v>28.2824704245879</v>
+        <v>28.28247042458791</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.58131652742628</v>
+        <v>19.58131652742629</v>
       </c>
       <c r="R40" t="n">
         <v>10.51451433553907</v>
       </c>
       <c r="S40" t="n">
-        <v>4.075277796447309</v>
+        <v>4.075277796447311</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9991552239594342</v>
+        <v>0.9991552239594347</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01275517307182258</v>
+        <v>0.01275517307182259</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>170.3690333149453</v>
       </c>
       <c r="L11" t="n">
-        <v>20.30157041172063</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N11" t="n">
-        <v>198.6988396730519</v>
+        <v>7.163000438878949</v>
       </c>
       <c r="O11" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>165.5317423883136</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>46.30566725758021</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>171.6647408465573</v>
       </c>
       <c r="L12" t="n">
-        <v>190.6706037266659</v>
+        <v>198.698839673052</v>
       </c>
       <c r="M12" t="n">
-        <v>198.6988396730519</v>
+        <v>112.004126038519</v>
       </c>
       <c r="N12" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>105.7005765146417</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35544,28 +35544,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.38450135314241</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>30.01584943355789</v>
+        <v>30.0158494335578</v>
       </c>
       <c r="E13" t="n">
-        <v>32.19735980520107</v>
+        <v>32.19735980520099</v>
       </c>
       <c r="F13" t="n">
-        <v>33.210274428839</v>
+        <v>33.21027442883891</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.48324315503775</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>30.21319961144347</v>
+        <v>30.21319961144339</v>
       </c>
       <c r="J13" t="n">
-        <v>14.29513602357969</v>
+        <v>44.16288053176098</v>
       </c>
       <c r="K13" t="n">
         <v>4.899026817099223</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>32.29683567103618</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>170.3690333149453</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="M14" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>198.6988396730519</v>
+        <v>7.163000438878949</v>
       </c>
       <c r="O14" t="n">
-        <v>191.5408653403679</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P14" t="n">
         <v>165.5317423883136</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>46.30566725758021</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>25.60609762271689</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>171.6647408465573</v>
       </c>
       <c r="L15" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>190.6706037266659</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>198.6988396730519</v>
+        <v>192.0986049304438</v>
       </c>
       <c r="O15" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,25 +35784,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>30.01584943355789</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>32.19735980520107</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>33.210274428839</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.48324315503775</v>
       </c>
       <c r="I16" t="n">
-        <v>30.21319961144359</v>
+        <v>30.21319961144347</v>
       </c>
       <c r="J16" t="n">
-        <v>101.8049724983583</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>4.899026817099223</v>
@@ -35820,10 +35820,10 @@
         <v>57.63803306748925</v>
       </c>
       <c r="P16" t="n">
-        <v>25.5610296894814</v>
+        <v>51.24066706620365</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.78139170099855</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>32.29683567103618</v>
       </c>
       <c r="K17" t="n">
         <v>170.3690333149453</v>
       </c>
       <c r="L17" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N17" t="n">
-        <v>172.6947428271922</v>
+        <v>21.17183202542303</v>
       </c>
       <c r="O17" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>165.5317423883136</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.30566725758021</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.60609762271689</v>
       </c>
       <c r="K18" t="n">
-        <v>84.97002721202415</v>
+        <v>171.6647408465573</v>
       </c>
       <c r="L18" t="n">
-        <v>198.6988396730519</v>
+        <v>86.39802841580213</v>
       </c>
       <c r="M18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Q18" t="n">
         <v>105.7005765146417</v>
@@ -36121,25 +36121,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>170.3690333149453</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>20.30157041172072</v>
       </c>
       <c r="M20" t="n">
-        <v>177.5320337538239</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N20" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="O20" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P20" t="n">
-        <v>165.5317423883136</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.30566725758021</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>25.60609762271689</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>171.6647408465573</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="M21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>84.97002721202416</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>198.6988396730519</v>
+        <v>86.39802841580213</v>
       </c>
       <c r="P21" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Q21" t="n">
         <v>105.7005765146417</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>32.29683567103618</v>
       </c>
       <c r="K23" t="n">
         <v>170.3690333149453</v>
       </c>
       <c r="L23" t="n">
-        <v>198.6988396730519</v>
+        <v>21.171832025423</v>
       </c>
       <c r="M23" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="O23" t="n">
-        <v>20.3015704117206</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>165.5317423883136</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>171.6647408465573</v>
       </c>
       <c r="L24" t="n">
-        <v>198.6988396730519</v>
+        <v>86.39802841580213</v>
       </c>
       <c r="M24" t="n">
-        <v>86.39802841580179</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Q24" t="n">
         <v>105.7005765146417</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>181.2989258938919</v>
+        <v>181.2989258938928</v>
       </c>
       <c r="K26" t="n">
         <v>319.3711235378019</v>
@@ -36759,10 +36759,10 @@
         <v>211.3584655526038</v>
       </c>
       <c r="M28" t="n">
-        <v>102.5460492587744</v>
+        <v>76.24011850808003</v>
       </c>
       <c r="N28" t="n">
-        <v>79.91681043222684</v>
+        <v>106.2227411829212</v>
       </c>
       <c r="O28" t="n">
         <v>57.63803306748925</v>
@@ -36835,25 +36835,25 @@
         <v>319.3711235378018</v>
       </c>
       <c r="L29" t="n">
-        <v>413.1646153955683</v>
+        <v>413.1646153955677</v>
       </c>
       <c r="M29" t="n">
-        <v>459.7080865034968</v>
+        <v>459.7080865034972</v>
       </c>
       <c r="N29" t="n">
         <v>449.9558388556145</v>
       </c>
       <c r="O29" t="n">
-        <v>387.5401023963826</v>
+        <v>387.5401023963827</v>
       </c>
       <c r="P29" t="n">
-        <v>314.5338326111701</v>
+        <v>314.5338326111702</v>
       </c>
       <c r="Q29" t="n">
         <v>195.3077574804367</v>
       </c>
       <c r="R29" t="n">
-        <v>31.88014854223974</v>
+        <v>31.88014854223977</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.17574026944445</v>
       </c>
       <c r="K31" t="n">
-        <v>4.899026817099223</v>
+        <v>31.20495756779507</v>
       </c>
       <c r="L31" t="n">
-        <v>62.35637532974721</v>
+        <v>211.3584655526037</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24011850808003</v>
+        <v>225.2422087309366</v>
       </c>
       <c r="N31" t="n">
-        <v>178.3984814523676</v>
+        <v>79.91681043222684</v>
       </c>
       <c r="O31" t="n">
-        <v>206.6401232903457</v>
+        <v>57.63803306748925</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5631199123379</v>
+        <v>25.5610296894814</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.42136349858842</v>
+        <v>82.42136349858845</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>181.2989258938928</v>
+        <v>181.2989258938927</v>
       </c>
       <c r="K32" t="n">
-        <v>319.3711235378019</v>
+        <v>319.3711235378018</v>
       </c>
       <c r="L32" t="n">
-        <v>413.1646153955678</v>
+        <v>413.1646153955677</v>
       </c>
       <c r="M32" t="n">
-        <v>459.7080865034969</v>
+        <v>459.7080865034972</v>
       </c>
       <c r="N32" t="n">
-        <v>449.9558388556146</v>
+        <v>449.9558388556145</v>
       </c>
       <c r="O32" t="n">
         <v>387.5401023963827</v>
@@ -37087,10 +37087,10 @@
         <v>314.5338326111702</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.3077574804368</v>
+        <v>195.3077574804367</v>
       </c>
       <c r="R32" t="n">
-        <v>31.88014854223985</v>
+        <v>31.88014854223977</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3866172046442671</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.568127576287452</v>
+        <v>2.568127576287367</v>
       </c>
       <c r="F34" t="n">
-        <v>3.581042199925378</v>
+        <v>3.581042199925292</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,13 +37221,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5839673825298535</v>
+        <v>0.5839673825297682</v>
       </c>
       <c r="J34" t="n">
-        <v>72.17574026944453</v>
+        <v>72.17574026944445</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9011170399558</v>
+        <v>4.899026817099223</v>
       </c>
       <c r="L34" t="n">
         <v>62.35637532974721</v>
@@ -37236,16 +37236,16 @@
         <v>76.24011850808003</v>
       </c>
       <c r="N34" t="n">
-        <v>228.9189006550835</v>
+        <v>99.48960402418035</v>
       </c>
       <c r="O34" t="n">
-        <v>76.82420945479679</v>
+        <v>206.6401232903458</v>
       </c>
       <c r="P34" t="n">
-        <v>25.5610296894814</v>
+        <v>174.5631199123379</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.42136349858853</v>
+        <v>82.42136349858845</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>32.29683567103618</v>
       </c>
       <c r="K35" t="n">
-        <v>306.4088124606926</v>
+        <v>170.3690333149453</v>
       </c>
       <c r="L35" t="n">
         <v>264.1625251727112</v>
@@ -37321,10 +37321,10 @@
         <v>238.5380121735262</v>
       </c>
       <c r="P35" t="n">
-        <v>366.9643141800881</v>
+        <v>301.5715215340613</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.30566725758021</v>
+        <v>247.7382390493547</v>
       </c>
       <c r="R35" t="n">
         <v>84.31063011115776</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.60609762271717</v>
+        <v>25.60609762271689</v>
       </c>
       <c r="K36" t="n">
         <v>171.6647408465573</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.725078441760394</v>
       </c>
       <c r="K37" t="n">
         <v>4.899026817099223</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.725078441760459</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.05475418179597</v>
+        <v>11.05475418179607</v>
       </c>
       <c r="J38" t="n">
-        <v>233.7294074628107</v>
+        <v>233.7294074628108</v>
       </c>
       <c r="K38" t="n">
-        <v>170.3690333149452</v>
+        <v>306.4088124606927</v>
       </c>
       <c r="L38" t="n">
-        <v>400.2023043184592</v>
+        <v>264.1625251727112</v>
       </c>
       <c r="M38" t="n">
         <v>310.7059962806402</v>
       </c>
       <c r="N38" t="n">
-        <v>300.9537486327579</v>
+        <v>300.953748632758</v>
       </c>
       <c r="O38" t="n">
-        <v>238.5380121735261</v>
+        <v>238.5380121735262</v>
       </c>
       <c r="P38" t="n">
-        <v>165.5317423883135</v>
+        <v>165.5317423883136</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.30566725758018</v>
+        <v>46.30566725758021</v>
       </c>
       <c r="R38" t="n">
-        <v>84.31063011115775</v>
+        <v>84.31063011115785</v>
       </c>
       <c r="S38" t="n">
-        <v>4.292012348794566</v>
+        <v>4.292012348794657</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>25.60609762271688</v>
+        <v>25.60609762271739</v>
       </c>
       <c r="K39" t="n">
         <v>171.6647408465573</v>
@@ -37695,28 +37695,28 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5.725078441760567</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.725078441759706</v>
       </c>
       <c r="K40" t="n">
-        <v>4.899026817099212</v>
+        <v>4.899026817099223</v>
       </c>
       <c r="L40" t="n">
-        <v>62.35637532974719</v>
+        <v>62.35637532974721</v>
       </c>
       <c r="M40" t="n">
-        <v>76.24011850808</v>
+        <v>76.24011850808003</v>
       </c>
       <c r="N40" t="n">
         <v>79.91681043222684</v>
       </c>
       <c r="O40" t="n">
-        <v>57.63803306748923</v>
+        <v>57.63803306748925</v>
       </c>
       <c r="P40" t="n">
-        <v>25.56102968948138</v>
+        <v>25.5610296894814</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.05475418179607</v>
+        <v>11.05475418179599</v>
       </c>
       <c r="J41" t="n">
-        <v>32.29683567103618</v>
+        <v>183.9615667192817</v>
       </c>
       <c r="K41" t="n">
         <v>170.3690333149453</v>
@@ -37786,10 +37786,10 @@
         <v>264.1625251727112</v>
       </c>
       <c r="M41" t="n">
-        <v>310.7059962806402</v>
+        <v>496.5136161699168</v>
       </c>
       <c r="N41" t="n">
-        <v>441.2855401272998</v>
+        <v>300.953748632758</v>
       </c>
       <c r="O41" t="n">
         <v>238.5380121735262</v>
@@ -37798,13 +37798,13 @@
         <v>165.5317423883136</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.7382390493548</v>
+        <v>46.30566725758021</v>
       </c>
       <c r="R41" t="n">
-        <v>84.31063011115785</v>
+        <v>84.31063011115776</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.292012348794572</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.72507844175977</v>
+        <v>5.725078441760345</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,19 +38011,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.05475418179607</v>
+        <v>11.05475418179599</v>
       </c>
       <c r="J44" t="n">
-        <v>233.7294074628108</v>
+        <v>233.7294074628107</v>
       </c>
       <c r="K44" t="n">
-        <v>170.3690333149453</v>
+        <v>306.4088124606928</v>
       </c>
       <c r="L44" t="n">
         <v>264.1625251727112</v>
       </c>
       <c r="M44" t="n">
-        <v>446.7457754263875</v>
+        <v>310.7059962806402</v>
       </c>
       <c r="N44" t="n">
         <v>300.953748632758</v>
@@ -38038,10 +38038,10 @@
         <v>46.30566725758021</v>
       </c>
       <c r="R44" t="n">
-        <v>84.31063011115785</v>
+        <v>84.31063011115776</v>
       </c>
       <c r="S44" t="n">
-        <v>4.292012348794657</v>
+        <v>4.292012348794572</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.725078441759713</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.725078441760345</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
